--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7636690553715096</v>
+        <v>0.7636690553715043</v>
       </c>
       <c r="D2">
-        <v>1.01572532425897</v>
+        <v>1.015725324258969</v>
       </c>
       <c r="E2">
-        <v>0.8006754392097248</v>
+        <v>0.80067543920972</v>
       </c>
       <c r="F2">
-        <v>0.7957045738791123</v>
+        <v>0.7957045738791073</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028971433055475</v>
+        <v>1.028971433055474</v>
       </c>
       <c r="J2">
-        <v>0.796267560452635</v>
+        <v>0.7962675604526299</v>
       </c>
       <c r="K2">
         <v>1.026969842656487</v>
       </c>
       <c r="L2">
-        <v>0.815845974051075</v>
+        <v>0.8158459740510702</v>
       </c>
       <c r="M2">
-        <v>0.8109998258485202</v>
+        <v>0.8109998258485153</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8254499915708957</v>
+        <v>0.8254499915708948</v>
       </c>
       <c r="D3">
         <v>1.025298064806694</v>
       </c>
       <c r="E3">
-        <v>0.8540865100680863</v>
+        <v>0.8540865100680857</v>
       </c>
       <c r="F3">
-        <v>0.8534103453200306</v>
+        <v>0.8534103453200302</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036912226650918</v>
       </c>
       <c r="J3">
-        <v>0.8521714409006268</v>
+        <v>0.8521714409006258</v>
       </c>
       <c r="K3">
-        <v>1.035617169672861</v>
+        <v>1.03561716967286</v>
       </c>
       <c r="L3">
-        <v>0.867003447282926</v>
+        <v>0.8670034472829253</v>
       </c>
       <c r="M3">
-        <v>0.8663402467434305</v>
+        <v>0.8663402467434299</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8539703516028254</v>
+        <v>0.8539703516028219</v>
       </c>
       <c r="D4">
-        <v>1.030120593965016</v>
+        <v>1.030120593965015</v>
       </c>
       <c r="E4">
-        <v>0.8788641631554834</v>
+        <v>0.8788641631554803</v>
       </c>
       <c r="F4">
-        <v>0.8802628019076741</v>
+        <v>0.8802628019076713</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040734830170348</v>
       </c>
       <c r="J4">
-        <v>0.8780241946769195</v>
+        <v>0.8780241946769162</v>
       </c>
       <c r="K4">
         <v>1.039868588960847</v>
       </c>
       <c r="L4">
-        <v>0.8906838090753357</v>
+        <v>0.8906838090753327</v>
       </c>
       <c r="M4">
-        <v>0.8920590947811847</v>
+        <v>0.8920590947811818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8645237861765257</v>
+        <v>0.864523786176528</v>
       </c>
       <c r="D5">
-        <v>1.031965044371899</v>
+        <v>1.031965044371898</v>
       </c>
       <c r="E5">
-        <v>0.8880475583616162</v>
+        <v>0.8880475583616182</v>
       </c>
       <c r="F5">
-        <v>0.8902187482315633</v>
+        <v>0.8902187482315653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042167206524466</v>
+        <v>1.042167206524465</v>
       </c>
       <c r="J5">
-        <v>0.8875932040977992</v>
+        <v>0.8875932040978015</v>
       </c>
       <c r="K5">
-        <v>1.041477074676392</v>
+        <v>1.041477074676391</v>
       </c>
       <c r="L5">
-        <v>0.8994509037371785</v>
+        <v>0.8994509037371806</v>
       </c>
       <c r="M5">
-        <v>0.9015877518068688</v>
+        <v>0.9015877518068705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8662290572254719</v>
+        <v>0.8662290572254701</v>
       </c>
       <c r="D6">
-        <v>1.032266008551922</v>
+        <v>1.032266008551923</v>
       </c>
       <c r="E6">
-        <v>0.8895321205640471</v>
+        <v>0.8895321205640457</v>
       </c>
       <c r="F6">
-        <v>0.8918281814783224</v>
+        <v>0.8918281814783213</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042399393138601</v>
       </c>
       <c r="J6">
-        <v>0.8891394486084681</v>
+        <v>0.8891394486084666</v>
       </c>
       <c r="K6">
-        <v>1.041738624570676</v>
+        <v>1.041738624570677</v>
       </c>
       <c r="L6">
-        <v>0.9008676480539142</v>
+        <v>0.9008676480539127</v>
       </c>
       <c r="M6">
-        <v>0.9031277145252636</v>
+        <v>0.9031277145252625</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8541161503665972</v>
+        <v>0.8541161503665979</v>
       </c>
       <c r="D7">
         <v>1.030145860440806</v>
       </c>
       <c r="E7">
-        <v>0.8789909840905036</v>
+        <v>0.8789909840905044</v>
       </c>
       <c r="F7">
-        <v>0.8804002885826421</v>
+        <v>0.8804002885826424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040754561545591</v>
+        <v>1.040754561545592</v>
       </c>
       <c r="J7">
-        <v>0.8781563882777265</v>
+        <v>0.878156388277727</v>
       </c>
       <c r="K7">
         <v>1.039890688033225</v>
       </c>
       <c r="L7">
-        <v>0.8908049179522503</v>
+        <v>0.8908049179522509</v>
       </c>
       <c r="M7">
-        <v>0.8921907086265248</v>
+        <v>0.8921907086265251</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D8">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E8">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F8">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J8">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K8">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L8">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M8">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D9">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E9">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F9">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J9">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K9">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L9">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M9">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D10">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E10">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F10">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J10">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K10">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L10">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M10">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D11">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E11">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F11">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J11">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K11">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L11">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M11">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D12">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E12">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F12">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J12">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K12">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L12">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M12">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D13">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E13">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F13">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J13">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K13">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L13">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M13">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D14">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E14">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F14">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J14">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K14">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L14">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M14">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D15">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E15">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F15">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J15">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K15">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L15">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M15">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D16">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E16">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F16">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J16">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K16">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L16">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M16">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D17">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E17">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F17">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J17">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K17">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L17">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M17">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D18">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E18">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F18">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J18">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K18">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L18">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M18">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D19">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E19">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F19">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J19">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K19">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L19">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M19">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D20">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E20">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F20">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J20">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K20">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L20">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M20">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D21">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E21">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F21">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J21">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K21">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L21">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M21">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D22">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E22">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F22">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J22">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K22">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L22">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M22">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D23">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E23">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F23">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J23">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K23">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L23">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M23">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D24">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E24">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F24">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J24">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K24">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L24">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M24">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7883844885591258</v>
+        <v>0.7883844885591262</v>
       </c>
       <c r="D25">
-        <v>1.01940539990319</v>
+        <v>1.019405399903189</v>
       </c>
       <c r="E25">
-        <v>0.8219924711532079</v>
+        <v>0.8219924711532084</v>
       </c>
       <c r="F25">
-        <v>0.8186922988978087</v>
+        <v>0.8186922988978081</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J25">
-        <v>0.8186089353030142</v>
+        <v>0.8186089353030145</v>
       </c>
       <c r="K25">
-        <v>1.030328775022343</v>
+        <v>1.030328775022342</v>
       </c>
       <c r="L25">
-        <v>0.8362803292205444</v>
+        <v>0.836280329220545</v>
       </c>
       <c r="M25">
-        <v>0.8330548247792896</v>
+        <v>0.8330548247792893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7636690553715043</v>
+        <v>0.7636690553715096</v>
       </c>
       <c r="D2">
-        <v>1.015725324258969</v>
+        <v>1.01572532425897</v>
       </c>
       <c r="E2">
-        <v>0.80067543920972</v>
+        <v>0.8006754392097248</v>
       </c>
       <c r="F2">
-        <v>0.7957045738791073</v>
+        <v>0.7957045738791123</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028971433055474</v>
+        <v>1.028971433055475</v>
       </c>
       <c r="J2">
-        <v>0.7962675604526299</v>
+        <v>0.796267560452635</v>
       </c>
       <c r="K2">
         <v>1.026969842656487</v>
       </c>
       <c r="L2">
-        <v>0.8158459740510702</v>
+        <v>0.815845974051075</v>
       </c>
       <c r="M2">
-        <v>0.8109998258485153</v>
+        <v>0.8109998258485202</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8254499915708948</v>
+        <v>0.8254499915708957</v>
       </c>
       <c r="D3">
         <v>1.025298064806694</v>
       </c>
       <c r="E3">
-        <v>0.8540865100680857</v>
+        <v>0.8540865100680863</v>
       </c>
       <c r="F3">
-        <v>0.8534103453200302</v>
+        <v>0.8534103453200306</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036912226650918</v>
       </c>
       <c r="J3">
-        <v>0.8521714409006258</v>
+        <v>0.8521714409006268</v>
       </c>
       <c r="K3">
-        <v>1.03561716967286</v>
+        <v>1.035617169672861</v>
       </c>
       <c r="L3">
-        <v>0.8670034472829253</v>
+        <v>0.867003447282926</v>
       </c>
       <c r="M3">
-        <v>0.8663402467434299</v>
+        <v>0.8663402467434305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8539703516028219</v>
+        <v>0.8539703516028254</v>
       </c>
       <c r="D4">
-        <v>1.030120593965015</v>
+        <v>1.030120593965016</v>
       </c>
       <c r="E4">
-        <v>0.8788641631554803</v>
+        <v>0.8788641631554834</v>
       </c>
       <c r="F4">
-        <v>0.8802628019076713</v>
+        <v>0.8802628019076741</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040734830170348</v>
       </c>
       <c r="J4">
-        <v>0.8780241946769162</v>
+        <v>0.8780241946769195</v>
       </c>
       <c r="K4">
         <v>1.039868588960847</v>
       </c>
       <c r="L4">
-        <v>0.8906838090753327</v>
+        <v>0.8906838090753357</v>
       </c>
       <c r="M4">
-        <v>0.8920590947811818</v>
+        <v>0.8920590947811847</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.864523786176528</v>
+        <v>0.8645237861765257</v>
       </c>
       <c r="D5">
-        <v>1.031965044371898</v>
+        <v>1.031965044371899</v>
       </c>
       <c r="E5">
-        <v>0.8880475583616182</v>
+        <v>0.8880475583616162</v>
       </c>
       <c r="F5">
-        <v>0.8902187482315653</v>
+        <v>0.8902187482315633</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042167206524465</v>
+        <v>1.042167206524466</v>
       </c>
       <c r="J5">
-        <v>0.8875932040978015</v>
+        <v>0.8875932040977992</v>
       </c>
       <c r="K5">
-        <v>1.041477074676391</v>
+        <v>1.041477074676392</v>
       </c>
       <c r="L5">
-        <v>0.8994509037371806</v>
+        <v>0.8994509037371785</v>
       </c>
       <c r="M5">
-        <v>0.9015877518068705</v>
+        <v>0.9015877518068688</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8662290572254701</v>
+        <v>0.8662290572254719</v>
       </c>
       <c r="D6">
-        <v>1.032266008551923</v>
+        <v>1.032266008551922</v>
       </c>
       <c r="E6">
-        <v>0.8895321205640457</v>
+        <v>0.8895321205640471</v>
       </c>
       <c r="F6">
-        <v>0.8918281814783213</v>
+        <v>0.8918281814783224</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042399393138601</v>
       </c>
       <c r="J6">
-        <v>0.8891394486084666</v>
+        <v>0.8891394486084681</v>
       </c>
       <c r="K6">
-        <v>1.041738624570677</v>
+        <v>1.041738624570676</v>
       </c>
       <c r="L6">
-        <v>0.9008676480539127</v>
+        <v>0.9008676480539142</v>
       </c>
       <c r="M6">
-        <v>0.9031277145252625</v>
+        <v>0.9031277145252636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8541161503665979</v>
+        <v>0.8541161503665972</v>
       </c>
       <c r="D7">
         <v>1.030145860440806</v>
       </c>
       <c r="E7">
-        <v>0.8789909840905044</v>
+        <v>0.8789909840905036</v>
       </c>
       <c r="F7">
-        <v>0.8804002885826424</v>
+        <v>0.8804002885826421</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040754561545592</v>
+        <v>1.040754561545591</v>
       </c>
       <c r="J7">
-        <v>0.878156388277727</v>
+        <v>0.8781563882777265</v>
       </c>
       <c r="K7">
         <v>1.039890688033225</v>
       </c>
       <c r="L7">
-        <v>0.8908049179522509</v>
+        <v>0.8908049179522503</v>
       </c>
       <c r="M7">
-        <v>0.8921907086265251</v>
+        <v>0.8921907086265248</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D8">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E8">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F8">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J8">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K8">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L8">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M8">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D9">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E9">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F9">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J9">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K9">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L9">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M9">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D10">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E10">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F10">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J10">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K10">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L10">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M10">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D11">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E11">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F11">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J11">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K11">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L11">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M11">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D12">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E12">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F12">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J12">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K12">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L12">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M12">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D13">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E13">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F13">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J13">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K13">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L13">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M13">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D14">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E14">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F14">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J14">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K14">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L14">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M14">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D15">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E15">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F15">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J15">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K15">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L15">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M15">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D16">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E16">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F16">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J16">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K16">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L16">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M16">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D17">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E17">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F17">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J17">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K17">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L17">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M17">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D18">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E18">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F18">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J18">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K18">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L18">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M18">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D19">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E19">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F19">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J19">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K19">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L19">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M19">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D20">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E20">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F20">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J20">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K20">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L20">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M20">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D21">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E21">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F21">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J21">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K21">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L21">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M21">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D22">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E22">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F22">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J22">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K22">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L22">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M22">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D23">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E23">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F23">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J23">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K23">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L23">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M23">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D24">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E24">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F24">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J24">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K24">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L24">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M24">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7883844885591262</v>
+        <v>0.7883844885591258</v>
       </c>
       <c r="D25">
-        <v>1.019405399903189</v>
+        <v>1.01940539990319</v>
       </c>
       <c r="E25">
-        <v>0.8219924711532084</v>
+        <v>0.8219924711532079</v>
       </c>
       <c r="F25">
-        <v>0.8186922988978081</v>
+        <v>0.8186922988978087</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032082890696284</v>
       </c>
       <c r="J25">
-        <v>0.8186089353030145</v>
+        <v>0.8186089353030142</v>
       </c>
       <c r="K25">
-        <v>1.030328775022342</v>
+        <v>1.030328775022343</v>
       </c>
       <c r="L25">
-        <v>0.836280329220545</v>
+        <v>0.8362803292205444</v>
       </c>
       <c r="M25">
-        <v>0.8330548247792893</v>
+        <v>0.8330548247792896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7636690553715096</v>
+        <v>0.7744445118227499</v>
       </c>
       <c r="D2">
-        <v>1.01572532425897</v>
+        <v>1.016745949789709</v>
       </c>
       <c r="E2">
-        <v>0.8006754392097248</v>
+        <v>0.8098582000980784</v>
       </c>
       <c r="F2">
-        <v>0.7957045738791123</v>
+        <v>0.8046434802140421</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028971433055475</v>
+        <v>1.029962845024711</v>
       </c>
       <c r="J2">
-        <v>0.796267560452635</v>
+        <v>0.8063611041679773</v>
       </c>
       <c r="K2">
-        <v>1.026969842656487</v>
+        <v>1.027976814342915</v>
       </c>
       <c r="L2">
-        <v>0.815845974051075</v>
+        <v>0.8248037501722714</v>
       </c>
       <c r="M2">
-        <v>0.8109998258485202</v>
+        <v>0.8197159468157771</v>
+      </c>
+      <c r="N2">
+        <v>0.8075062294268072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8254499915708957</v>
+        <v>0.8336857827014184</v>
       </c>
       <c r="D3">
-        <v>1.025298064806694</v>
+        <v>1.026038628061095</v>
       </c>
       <c r="E3">
-        <v>0.8540865100680863</v>
+        <v>0.8611277508766302</v>
       </c>
       <c r="F3">
-        <v>0.8534103453200306</v>
+        <v>0.8600613239104262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036912226650918</v>
+        <v>1.037633345316884</v>
       </c>
       <c r="J3">
-        <v>0.8521714409006268</v>
+        <v>0.8600284842028548</v>
       </c>
       <c r="K3">
-        <v>1.035617169672861</v>
+        <v>1.036348836915686</v>
       </c>
       <c r="L3">
-        <v>0.867003447282926</v>
+        <v>0.8739112649847495</v>
       </c>
       <c r="M3">
-        <v>0.8663402467434305</v>
+        <v>0.8728648621782025</v>
+      </c>
+      <c r="N3">
+        <v>0.8612498232970688</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8539703516028254</v>
+        <v>0.8615804399934436</v>
       </c>
       <c r="D4">
-        <v>1.030120593965016</v>
+        <v>1.030789260408805</v>
       </c>
       <c r="E4">
-        <v>0.8788641631554834</v>
+        <v>0.8853772463103482</v>
       </c>
       <c r="F4">
-        <v>0.8802628019076741</v>
+        <v>0.8863398616083207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040734830170348</v>
+        <v>1.041386873417909</v>
       </c>
       <c r="J4">
-        <v>0.8780241946769195</v>
+        <v>0.8853366905849493</v>
       </c>
       <c r="K4">
-        <v>1.039868588960847</v>
+        <v>1.040529762172776</v>
       </c>
       <c r="L4">
-        <v>0.8906838090753357</v>
+        <v>0.8970889512520811</v>
       </c>
       <c r="M4">
-        <v>0.8920590947811847</v>
+        <v>0.8980357861596762</v>
+      </c>
+      <c r="N4">
+        <v>0.8865939702351178</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8645237861765257</v>
+        <v>0.8719505221269043</v>
       </c>
       <c r="D5">
-        <v>1.031965044371899</v>
+        <v>1.032612203112236</v>
       </c>
       <c r="E5">
-        <v>0.8880475583616162</v>
+        <v>0.8944058597494745</v>
       </c>
       <c r="F5">
-        <v>0.8902187482315633</v>
+        <v>0.8961260868938036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042167206524466</v>
+        <v>1.042798642611091</v>
       </c>
       <c r="J5">
-        <v>0.8875932040977992</v>
+        <v>0.8947472719576746</v>
       </c>
       <c r="K5">
-        <v>1.041477074676392</v>
+        <v>1.04211719257831</v>
       </c>
       <c r="L5">
-        <v>0.8994509037371785</v>
+        <v>0.9057092374504916</v>
       </c>
       <c r="M5">
-        <v>0.9015877518068688</v>
+        <v>0.9074027300179163</v>
+      </c>
+      <c r="N5">
+        <v>0.8960179157128009</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8662290572254719</v>
+        <v>0.8736281685125978</v>
       </c>
       <c r="D6">
-        <v>1.032266008551922</v>
+        <v>1.032909904712594</v>
       </c>
       <c r="E6">
-        <v>0.8895321205640471</v>
+        <v>0.8958671027587501</v>
       </c>
       <c r="F6">
-        <v>0.8918281814783224</v>
+        <v>0.8977098712594945</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042399393138601</v>
+        <v>1.043027706315672</v>
       </c>
       <c r="J6">
-        <v>0.8891394486084681</v>
+        <v>0.8962697086174983</v>
       </c>
       <c r="K6">
-        <v>1.041738624570676</v>
+        <v>1.042375550294763</v>
       </c>
       <c r="L6">
-        <v>0.9008676480539142</v>
+        <v>0.9071038910032545</v>
       </c>
       <c r="M6">
-        <v>0.9031277145252636</v>
+        <v>0.9089182714024779</v>
+      </c>
+      <c r="N6">
+        <v>0.8975425144073075</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8541161503665972</v>
+        <v>0.8617235521523059</v>
       </c>
       <c r="D7">
-        <v>1.030145860440806</v>
+        <v>1.030814213458835</v>
       </c>
       <c r="E7">
-        <v>0.8789909840905036</v>
+        <v>0.885501799245934</v>
       </c>
       <c r="F7">
-        <v>0.8804002885826421</v>
+        <v>0.8864748674640446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040754561545591</v>
+        <v>1.041406304259529</v>
       </c>
       <c r="J7">
-        <v>0.8781563882777265</v>
+        <v>0.8854665581039632</v>
       </c>
       <c r="K7">
-        <v>1.039890688033225</v>
+        <v>1.040551554277946</v>
       </c>
       <c r="L7">
-        <v>0.8908049179522503</v>
+        <v>0.8972079068926769</v>
       </c>
       <c r="M7">
-        <v>0.8921907086265248</v>
+        <v>0.8981650349221224</v>
+      </c>
+      <c r="N7">
+        <v>0.8867240221809045</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D8">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E8">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F8">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J8">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K8">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L8">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M8">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N8">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D9">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E9">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F9">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J9">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K9">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L9">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M9">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N9">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D10">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E10">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F10">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J10">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K10">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L10">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M10">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N10">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D11">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E11">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F11">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J11">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K11">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L11">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M11">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N11">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D12">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E12">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F12">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J12">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K12">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L12">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M12">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N12">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D13">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E13">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F13">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J13">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K13">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L13">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M13">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N13">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D14">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E14">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F14">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J14">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K14">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L14">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M14">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N14">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D15">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E15">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F15">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J15">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K15">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L15">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M15">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N15">
+        <v>0.8287330248941104</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D16">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E16">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F16">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J16">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K16">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L16">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M16">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N16">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D17">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E17">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F17">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J17">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K17">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L17">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M17">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N17">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D18">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E18">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F18">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J18">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K18">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L18">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M18">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N18">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D19">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E19">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F19">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J19">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K19">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L19">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M19">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N19">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D20">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E20">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F20">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J20">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K20">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L20">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M20">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N20">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D21">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E21">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F21">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J21">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K21">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L21">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M21">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N21">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D22">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E22">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F22">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J22">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K22">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L22">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M22">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N22">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D23">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E23">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F23">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J23">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K23">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L23">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M23">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N23">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D24">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E24">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F24">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J24">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K24">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L24">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M24">
-        <v>0.8330548247792896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N24">
+        <v>0.8287330248941104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7883844885591258</v>
+        <v>0.7978636760288955</v>
       </c>
       <c r="D25">
-        <v>1.01940539990319</v>
+        <v>1.020284641696557</v>
       </c>
       <c r="E25">
-        <v>0.8219924711532079</v>
+        <v>0.8300826294090119</v>
       </c>
       <c r="F25">
-        <v>0.8186922988978087</v>
+        <v>0.8264690051386889</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032082890696284</v>
+        <v>1.032937703429358</v>
       </c>
       <c r="J25">
-        <v>0.8186089353030142</v>
+        <v>0.8275577978988877</v>
       </c>
       <c r="K25">
-        <v>1.030328775022343</v>
+        <v>1.031196679823106</v>
       </c>
       <c r="L25">
-        <v>0.8362803292205444</v>
+        <v>0.8441907818281936</v>
       </c>
       <c r="M25">
-        <v>0.8330548247792896</v>
+        <v>0.8406568478961456</v>
+      </c>
+      <c r="N25">
+        <v>0.8287330248941104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7744445118227499</v>
+        <v>0.9467349370986796</v>
       </c>
       <c r="D2">
-        <v>1.016745949789709</v>
+        <v>1.03249819608252</v>
       </c>
       <c r="E2">
-        <v>0.8098582000980784</v>
+        <v>0.9599767234494494</v>
       </c>
       <c r="F2">
-        <v>0.8046434802140421</v>
+        <v>1.01400304276804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029962845024711</v>
+        <v>1.053012230805808</v>
       </c>
       <c r="J2">
-        <v>0.8063611041679773</v>
+        <v>0.9706345205212544</v>
       </c>
       <c r="K2">
-        <v>1.027976814342915</v>
+        <v>1.043522610493919</v>
       </c>
       <c r="L2">
-        <v>0.8248037501722714</v>
+        <v>0.9720233167589447</v>
       </c>
       <c r="M2">
-        <v>0.8197159468157771</v>
+        <v>1.025270680039004</v>
       </c>
       <c r="N2">
-        <v>0.8075062294268072</v>
+        <v>0.9720129328737299</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8336857827014184</v>
+        <v>0.9580018056680938</v>
       </c>
       <c r="D3">
-        <v>1.026038628061095</v>
+        <v>1.038582492792126</v>
       </c>
       <c r="E3">
-        <v>0.8611277508766302</v>
+        <v>0.969415150483663</v>
       </c>
       <c r="F3">
-        <v>0.8600613239104262</v>
+        <v>1.02227977147614</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037633345316884</v>
+        <v>1.055614194709092</v>
       </c>
       <c r="J3">
-        <v>0.8600284842028548</v>
+        <v>0.9797067595144076</v>
       </c>
       <c r="K3">
-        <v>1.036348836915686</v>
+        <v>1.048744402583589</v>
       </c>
       <c r="L3">
-        <v>0.8739112649847495</v>
+        <v>0.9804549285114151</v>
       </c>
       <c r="M3">
-        <v>0.8728648621782025</v>
+        <v>1.032635299135387</v>
       </c>
       <c r="N3">
-        <v>0.8612498232970688</v>
+        <v>0.9810980554868538</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8615804399934436</v>
+        <v>0.9649675967717085</v>
       </c>
       <c r="D4">
-        <v>1.030789260408805</v>
+        <v>1.042350571341184</v>
       </c>
       <c r="E4">
-        <v>0.8853772463103482</v>
+        <v>0.9752606070573601</v>
       </c>
       <c r="F4">
-        <v>0.8863398616083207</v>
+        <v>1.027403608330229</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041386873417909</v>
+        <v>1.057205011883883</v>
       </c>
       <c r="J4">
-        <v>0.8853366905849493</v>
+        <v>0.9853119660977192</v>
       </c>
       <c r="K4">
-        <v>1.040529762172776</v>
+        <v>1.051963380665482</v>
       </c>
       <c r="L4">
-        <v>0.8970889512520811</v>
+        <v>0.985667079114003</v>
       </c>
       <c r="M4">
-        <v>0.8980357861596762</v>
+        <v>1.037182174119281</v>
       </c>
       <c r="N4">
-        <v>0.8865939702351178</v>
+        <v>0.9867112221064402</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8719505221269043</v>
+        <v>0.9678248591619781</v>
       </c>
       <c r="D5">
-        <v>1.032612203112236</v>
+        <v>1.043896844368026</v>
       </c>
       <c r="E5">
-        <v>0.8944058597494745</v>
+        <v>0.9776605143440517</v>
       </c>
       <c r="F5">
-        <v>0.8961260868938036</v>
+        <v>1.029506067491323</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042798642611091</v>
+        <v>1.057852840200003</v>
       </c>
       <c r="J5">
-        <v>0.8947472719576746</v>
+        <v>0.9876100662800888</v>
       </c>
       <c r="K5">
-        <v>1.04211719257831</v>
+        <v>1.053280778648264</v>
       </c>
       <c r="L5">
-        <v>0.9057092374504916</v>
+        <v>0.9878046664988441</v>
       </c>
       <c r="M5">
-        <v>0.9074027300179163</v>
+        <v>1.039044949632318</v>
       </c>
       <c r="N5">
-        <v>0.8960179157128009</v>
+        <v>0.9890125858546646</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8736281685125978</v>
+        <v>0.9683006077124</v>
       </c>
       <c r="D6">
-        <v>1.032909904712594</v>
+        <v>1.04415432184857</v>
       </c>
       <c r="E6">
-        <v>0.8958671027587501</v>
+        <v>0.9780602335047218</v>
       </c>
       <c r="F6">
-        <v>0.8977098712594945</v>
+        <v>1.029856157452022</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043027706315672</v>
+        <v>1.057960418862918</v>
       </c>
       <c r="J6">
-        <v>0.8962697086174983</v>
+        <v>0.9879926438486317</v>
       </c>
       <c r="K6">
-        <v>1.042375550294763</v>
+        <v>1.053499937250023</v>
       </c>
       <c r="L6">
-        <v>0.9071038910032545</v>
+        <v>0.988160559564105</v>
       </c>
       <c r="M6">
-        <v>0.9089182714024779</v>
+        <v>1.039354956016666</v>
       </c>
       <c r="N6">
-        <v>0.8975425144073075</v>
+        <v>0.9893957067272371</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8617235521523059</v>
+        <v>0.9650060472393073</v>
       </c>
       <c r="D7">
-        <v>1.030814213458835</v>
+        <v>1.042371378153221</v>
       </c>
       <c r="E7">
-        <v>0.885501799245934</v>
+        <v>0.9752928944512834</v>
       </c>
       <c r="F7">
-        <v>0.8864748674640446</v>
+        <v>1.027431899485688</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041406304259529</v>
+        <v>1.057213748957903</v>
       </c>
       <c r="J7">
-        <v>0.8854665581039632</v>
+        <v>0.9853428963281908</v>
       </c>
       <c r="K7">
-        <v>1.040551554277946</v>
+        <v>1.051981121742946</v>
       </c>
       <c r="L7">
-        <v>0.8972079068926769</v>
+        <v>0.985695846490225</v>
       </c>
       <c r="M7">
-        <v>0.8981650349221224</v>
+        <v>1.037207251695566</v>
       </c>
       <c r="N7">
-        <v>0.8867240221809045</v>
+        <v>0.9867421962613867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7978636760288955</v>
+        <v>0.9506140937579129</v>
       </c>
       <c r="D8">
-        <v>1.020284641696557</v>
+        <v>1.034591051316033</v>
       </c>
       <c r="E8">
-        <v>0.8300826294090119</v>
+        <v>0.9632240387845968</v>
       </c>
       <c r="F8">
-        <v>0.8264690051386889</v>
+        <v>1.016850691490121</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032937703429358</v>
+        <v>1.053911616365553</v>
       </c>
       <c r="J8">
-        <v>0.8275577978988877</v>
+        <v>0.9737587554777494</v>
       </c>
       <c r="K8">
-        <v>1.031196679823106</v>
+        <v>1.045321995987553</v>
       </c>
       <c r="L8">
-        <v>0.8441907818281936</v>
+        <v>0.9749263350796235</v>
       </c>
       <c r="M8">
-        <v>0.8406568478961456</v>
+        <v>1.027807146415694</v>
       </c>
       <c r="N8">
-        <v>0.8287330248941104</v>
+        <v>0.9751416046022179</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7978636760288955</v>
+        <v>0.9224134664306129</v>
       </c>
       <c r="D9">
-        <v>1.020284641696557</v>
+        <v>1.019450035920011</v>
       </c>
       <c r="E9">
-        <v>0.8300826294090119</v>
+        <v>0.9396742629819611</v>
       </c>
       <c r="F9">
-        <v>0.8264690051386889</v>
+        <v>0.9962237302345771</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032937703429358</v>
+        <v>1.04731438614187</v>
       </c>
       <c r="J9">
-        <v>0.8275577978988877</v>
+        <v>0.951038452596294</v>
       </c>
       <c r="K9">
-        <v>1.031196679823106</v>
+        <v>1.032235239284401</v>
       </c>
       <c r="L9">
-        <v>0.8441907818281936</v>
+        <v>0.9538282861716488</v>
       </c>
       <c r="M9">
-        <v>0.8406568478961456</v>
+        <v>1.00937837334991</v>
       </c>
       <c r="N9">
-        <v>0.8287330248941104</v>
+        <v>0.9523890362846161</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7978636760288955</v>
+        <v>0.9010824329394022</v>
       </c>
       <c r="D10">
-        <v>1.020284641696557</v>
+        <v>1.008157817243196</v>
       </c>
       <c r="E10">
-        <v>0.8300826294090119</v>
+        <v>0.9219545065252684</v>
       </c>
       <c r="F10">
-        <v>0.8264690051386889</v>
+        <v>0.9807844158198987</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032937703429358</v>
+        <v>1.042276990137082</v>
       </c>
       <c r="J10">
-        <v>0.8275577978988877</v>
+        <v>0.9338558076988613</v>
       </c>
       <c r="K10">
-        <v>1.031196679823106</v>
+        <v>1.022381325536905</v>
       </c>
       <c r="L10">
-        <v>0.8441907818281936</v>
+        <v>0.9378919766163729</v>
       </c>
       <c r="M10">
-        <v>0.8406568478961456</v>
+        <v>0.995509502671007</v>
       </c>
       <c r="N10">
-        <v>0.8287330248941104</v>
+        <v>0.935181990060552</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7978636760288955</v>
+        <v>0.8910546608191801</v>
       </c>
       <c r="D11">
-        <v>1.020284641696557</v>
+        <v>1.002913719581327</v>
       </c>
       <c r="E11">
-        <v>0.8300826294090119</v>
+        <v>0.9136542547743869</v>
       </c>
       <c r="F11">
-        <v>0.8264690051386889</v>
+        <v>0.973592002021696</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032937703429358</v>
+        <v>1.03990958081345</v>
       </c>
       <c r="J11">
-        <v>0.8275577978988877</v>
+        <v>0.9257844350380539</v>
       </c>
       <c r="K11">
-        <v>1.031196679823106</v>
+        <v>1.01778089581584</v>
       </c>
       <c r="L11">
-        <v>0.8441907818281936</v>
+        <v>0.9304114803908414</v>
       </c>
       <c r="M11">
-        <v>0.8406568478961456</v>
+        <v>0.9890297305057639</v>
       </c>
       <c r="N11">
-        <v>0.8287330248941104</v>
+        <v>0.9270991551247669</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7978636760288955</v>
+        <v>0.8871891221833471</v>
       </c>
       <c r="D12">
-        <v>1.020284641696557</v>
+        <v>1.000904739533853</v>
       </c>
       <c r="E12">
-        <v>0.8300826294090119</v>
+        <v>0.910459976971994</v>
       </c>
       <c r="F12">
-        <v>0.8264690051386889</v>
+        <v>0.9708322730837438</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032937703429358</v>
+        <v>1.038998392464525</v>
       </c>
       <c r="J12">
-        <v>0.8275577978988877</v>
+        <v>0.9226746124480517</v>
       </c>
       <c r="K12">
-        <v>1.031196679823106</v>
+        <v>1.01601462666509</v>
       </c>
       <c r="L12">
-        <v>0.8441907818281936</v>
+        <v>0.9275302188253621</v>
       </c>
       <c r="M12">
-        <v>0.8406568478961456</v>
+        <v>0.9865404592462593</v>
       </c>
       <c r="N12">
-        <v>0.8287330248941104</v>
+        <v>0.9239849162299851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7978636760288955</v>
+        <v>0.8880250830554315</v>
       </c>
       <c r="D13">
-        <v>1.020284641696557</v>
+        <v>1.001338584566864</v>
       </c>
       <c r="E13">
-        <v>0.8300826294090119</v>
+        <v>0.9111505153850594</v>
       </c>
       <c r="F13">
-        <v>0.8264690051386889</v>
+        <v>0.9714284593622754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032937703429358</v>
+        <v>1.039195358412785</v>
       </c>
       <c r="J13">
-        <v>0.8275577978988877</v>
+        <v>0.9233470605507292</v>
       </c>
       <c r="K13">
-        <v>1.031196679823106</v>
+        <v>1.016396236383542</v>
       </c>
       <c r="L13">
-        <v>0.8441907818281936</v>
+        <v>0.9281532021336953</v>
       </c>
       <c r="M13">
-        <v>0.8406568478961456</v>
+        <v>0.9870783553260839</v>
       </c>
       <c r="N13">
-        <v>0.8287330248941104</v>
+        <v>0.9246583192860994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7978636760288955</v>
+        <v>0.8907381546528641</v>
       </c>
       <c r="D14">
-        <v>1.020284641696557</v>
+        <v>1.002748955255685</v>
       </c>
       <c r="E14">
-        <v>0.8300826294090119</v>
+        <v>0.9133925977276524</v>
       </c>
       <c r="F14">
-        <v>0.8264690051386889</v>
+        <v>0.9733657604240303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032937703429358</v>
+        <v>1.039834936776088</v>
       </c>
       <c r="J14">
-        <v>0.8275577978988877</v>
+        <v>0.925529770606861</v>
       </c>
       <c r="K14">
-        <v>1.031196679823106</v>
+        <v>1.017636116916224</v>
       </c>
       <c r="L14">
-        <v>0.8441907818281936</v>
+        <v>0.9301755141441634</v>
       </c>
       <c r="M14">
-        <v>0.8406568478961456</v>
+        <v>0.9888257220704384</v>
       </c>
       <c r="N14">
-        <v>0.8287330248941104</v>
+        <v>0.9268441290408712</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7978636760288955</v>
+        <v>0.8923903544830168</v>
       </c>
       <c r="D15">
-        <v>1.020284641696557</v>
+        <v>1.003609568534332</v>
       </c>
       <c r="E15">
-        <v>0.8300826294090119</v>
+        <v>0.9147586991222917</v>
       </c>
       <c r="F15">
-        <v>0.8264690051386889</v>
+        <v>0.9745473050314521</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032937703429358</v>
+        <v>1.040224652798801</v>
       </c>
       <c r="J15">
-        <v>0.8275577978988877</v>
+        <v>0.9268592160738817</v>
       </c>
       <c r="K15">
-        <v>1.031196679823106</v>
+        <v>1.01839218219822</v>
       </c>
       <c r="L15">
-        <v>0.8441907818281936</v>
+        <v>0.9314073849088833</v>
       </c>
       <c r="M15">
-        <v>0.8406568478961456</v>
+        <v>0.9898910327531597</v>
       </c>
       <c r="N15">
-        <v>0.8287330248941104</v>
+        <v>0.9281754624729444</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7978636760288955</v>
+        <v>0.9017295348616429</v>
       </c>
       <c r="D16">
-        <v>1.020284641696557</v>
+        <v>1.008497756533548</v>
       </c>
       <c r="E16">
-        <v>0.8300826294090119</v>
+        <v>0.9224908027317377</v>
       </c>
       <c r="F16">
-        <v>0.8264690051386889</v>
+        <v>0.9812501148365198</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032937703429358</v>
+        <v>1.042429876762986</v>
       </c>
       <c r="J16">
-        <v>0.8275577978988877</v>
+        <v>0.9343768359352723</v>
       </c>
       <c r="K16">
-        <v>1.031196679823106</v>
+        <v>1.02267902581385</v>
       </c>
       <c r="L16">
-        <v>0.8441907818281936</v>
+        <v>0.9383749793839885</v>
       </c>
       <c r="M16">
-        <v>0.8406568478961456</v>
+        <v>0.9959286614960304</v>
       </c>
       <c r="N16">
-        <v>0.8287330248941104</v>
+        <v>0.9357037582168213</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7978636760288955</v>
+        <v>0.9073622029155366</v>
       </c>
       <c r="D17">
-        <v>1.020284641696557</v>
+        <v>1.011464123207559</v>
       </c>
       <c r="E17">
-        <v>0.8300826294090119</v>
+        <v>0.9271623421608637</v>
       </c>
       <c r="F17">
-        <v>0.8264690051386889</v>
+        <v>0.9853112949166339</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032937703429358</v>
+        <v>1.043760869419103</v>
       </c>
       <c r="J17">
-        <v>0.8275577978988877</v>
+        <v>0.9389128462270223</v>
       </c>
       <c r="K17">
-        <v>1.031196679823106</v>
+        <v>1.025274086888774</v>
       </c>
       <c r="L17">
-        <v>0.8441907818281936</v>
+        <v>0.9425805516856013</v>
       </c>
       <c r="M17">
-        <v>0.8406568478961456</v>
+        <v>0.9995818671457282</v>
       </c>
       <c r="N17">
-        <v>0.8287330248941104</v>
+        <v>0.9402462101634733</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7978636760288955</v>
+        <v>0.9105730378384355</v>
       </c>
       <c r="D18">
-        <v>1.020284641696557</v>
+        <v>1.013160767095272</v>
       </c>
       <c r="E18">
-        <v>0.8300826294090119</v>
+        <v>0.9298279740377244</v>
       </c>
       <c r="F18">
-        <v>0.8264690051386889</v>
+        <v>0.9876321291535053</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032937703429358</v>
+        <v>1.044519554222521</v>
       </c>
       <c r="J18">
-        <v>0.8275577978988877</v>
+        <v>0.941499070767862</v>
       </c>
       <c r="K18">
-        <v>1.031196679823106</v>
+        <v>1.026756130661307</v>
       </c>
       <c r="L18">
-        <v>0.8441907818281936</v>
+        <v>0.9449788670963201</v>
       </c>
       <c r="M18">
-        <v>0.8406568478961456</v>
+        <v>1.001667818708655</v>
       </c>
       <c r="N18">
-        <v>0.8287330248941104</v>
+        <v>0.9428361074398053</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7978636760288955</v>
+        <v>0.9116557682190457</v>
       </c>
       <c r="D19">
-        <v>1.020284641696557</v>
+        <v>1.013733789662525</v>
       </c>
       <c r="E19">
-        <v>0.8300826294090119</v>
+        <v>0.930727288541214</v>
       </c>
       <c r="F19">
-        <v>0.8264690051386889</v>
+        <v>0.9884156514242748</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032937703429358</v>
+        <v>1.044775352872671</v>
       </c>
       <c r="J19">
-        <v>0.8275577978988877</v>
+        <v>0.9423712490994791</v>
       </c>
       <c r="K19">
-        <v>1.031196679823106</v>
+        <v>1.027256302119785</v>
       </c>
       <c r="L19">
-        <v>0.8441907818281936</v>
+        <v>0.9457877561326054</v>
       </c>
       <c r="M19">
-        <v>0.8406568478961456</v>
+        <v>1.002371752108951</v>
       </c>
       <c r="N19">
-        <v>0.8287330248941104</v>
+        <v>0.9437095243646932</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7978636760288955</v>
+        <v>0.9067657273256371</v>
       </c>
       <c r="D20">
-        <v>1.020284641696557</v>
+        <v>1.011149384812371</v>
       </c>
       <c r="E20">
-        <v>0.8300826294090119</v>
+        <v>0.9266673614711339</v>
       </c>
       <c r="F20">
-        <v>0.8264690051386889</v>
+        <v>0.9848806088976181</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032937703429358</v>
+        <v>1.04361991811014</v>
       </c>
       <c r="J20">
-        <v>0.8275577978988877</v>
+        <v>0.9384324433007294</v>
       </c>
       <c r="K20">
-        <v>1.031196679823106</v>
+        <v>1.024998978465131</v>
       </c>
       <c r="L20">
-        <v>0.8441907818281936</v>
+        <v>0.9421350932040321</v>
       </c>
       <c r="M20">
-        <v>0.8406568478961456</v>
+        <v>0.9991946286334747</v>
       </c>
       <c r="N20">
-        <v>0.8287330248941104</v>
+        <v>0.9397651250099224</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7978636760288955</v>
+        <v>0.8899433155340595</v>
       </c>
       <c r="D21">
-        <v>1.020284641696557</v>
+        <v>1.002335395451234</v>
       </c>
       <c r="E21">
-        <v>0.8300826294090119</v>
+        <v>0.9127355892539889</v>
       </c>
       <c r="F21">
-        <v>0.8264690051386889</v>
+        <v>0.9727978184741453</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032937703429358</v>
+        <v>1.039647511365595</v>
       </c>
       <c r="J21">
-        <v>0.8275577978988877</v>
+        <v>0.9248902613857986</v>
       </c>
       <c r="K21">
-        <v>1.031196679823106</v>
+        <v>1.017272657718352</v>
       </c>
       <c r="L21">
-        <v>0.8441907818281936</v>
+        <v>0.9295829742730654</v>
       </c>
       <c r="M21">
-        <v>0.8406568478961456</v>
+        <v>0.9883135444517348</v>
       </c>
       <c r="N21">
-        <v>0.8287330248941104</v>
+        <v>0.9262037116433622</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7978636760288955</v>
+        <v>0.8785360376668143</v>
       </c>
       <c r="D22">
-        <v>1.020284641696557</v>
+        <v>0.9964347591745872</v>
       </c>
       <c r="E22">
-        <v>0.8300826294090119</v>
+        <v>0.903320597699213</v>
       </c>
       <c r="F22">
-        <v>0.8264690051386889</v>
+        <v>0.9646824537585813</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032937703429358</v>
+        <v>1.036963053198017</v>
       </c>
       <c r="J22">
-        <v>0.8275577978988877</v>
+        <v>0.9157169618256021</v>
       </c>
       <c r="K22">
-        <v>1.031196679823106</v>
+        <v>1.012077176592085</v>
       </c>
       <c r="L22">
-        <v>0.8441907818281936</v>
+        <v>0.9210857284894869</v>
       </c>
       <c r="M22">
-        <v>0.8406568478961456</v>
+        <v>0.9809875978741596</v>
       </c>
       <c r="N22">
-        <v>0.8287330248941104</v>
+        <v>0.917017384945598</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7978636760288955</v>
+        <v>0.8846710178371906</v>
       </c>
       <c r="D23">
-        <v>1.020284641696557</v>
+        <v>0.9995999975576298</v>
       </c>
       <c r="E23">
-        <v>0.8300826294090119</v>
+        <v>0.9083807780183619</v>
       </c>
       <c r="F23">
-        <v>0.8264690051386889</v>
+        <v>0.9690385774361476</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032937703429358</v>
+        <v>1.038405411499369</v>
       </c>
       <c r="J23">
-        <v>0.8275577978988877</v>
+        <v>0.9206493316350651</v>
       </c>
       <c r="K23">
-        <v>1.031196679823106</v>
+        <v>1.014866387407803</v>
       </c>
       <c r="L23">
-        <v>0.8441907818281936</v>
+        <v>0.925654056552643</v>
       </c>
       <c r="M23">
-        <v>0.8406568478961456</v>
+        <v>0.984921685837393</v>
       </c>
       <c r="N23">
-        <v>0.8287330248941104</v>
+        <v>0.9219567592859411</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7978636760288955</v>
+        <v>0.9070354779323213</v>
       </c>
       <c r="D24">
-        <v>1.020284641696557</v>
+        <v>1.011291704770408</v>
       </c>
       <c r="E24">
-        <v>0.8300826294090119</v>
+        <v>0.9268912036489466</v>
       </c>
       <c r="F24">
-        <v>0.8264690051386889</v>
+        <v>0.9850753647826476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032937703429358</v>
+        <v>1.043683662235154</v>
       </c>
       <c r="J24">
-        <v>0.8275577978988877</v>
+        <v>0.9386496995128752</v>
       </c>
       <c r="K24">
-        <v>1.031196679823106</v>
+        <v>1.02512338527355</v>
       </c>
       <c r="L24">
-        <v>0.8441907818281936</v>
+        <v>0.9423365447012955</v>
       </c>
       <c r="M24">
-        <v>0.8406568478961456</v>
+        <v>0.9993697429982723</v>
       </c>
       <c r="N24">
-        <v>0.8287330248941104</v>
+        <v>0.9399826897508087</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.7978636760288955</v>
+        <v>0.9300966326697446</v>
       </c>
       <c r="D25">
-        <v>1.020284641696557</v>
+        <v>1.023555536175043</v>
       </c>
       <c r="E25">
-        <v>0.8300826294090119</v>
+        <v>0.9460768594914164</v>
       </c>
       <c r="F25">
-        <v>0.8264690051386889</v>
+        <v>1.001823562432596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032937703429358</v>
+        <v>1.049122769352271</v>
       </c>
       <c r="J25">
-        <v>0.8275577978988877</v>
+        <v>0.9572294491717183</v>
       </c>
       <c r="K25">
-        <v>1.031196679823106</v>
+        <v>1.035798865416193</v>
       </c>
       <c r="L25">
-        <v>0.8441907818281936</v>
+        <v>0.9595742188173396</v>
       </c>
       <c r="M25">
-        <v>0.8406568478961456</v>
+        <v>1.014393635747331</v>
       </c>
       <c r="N25">
-        <v>0.8287330248941104</v>
+        <v>0.9585888247852948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9467349370986796</v>
+        <v>1.02614466418837</v>
       </c>
       <c r="D2">
-        <v>1.03249819608252</v>
+        <v>1.054166742689139</v>
       </c>
       <c r="E2">
-        <v>0.9599767234494494</v>
+        <v>1.040626305782895</v>
       </c>
       <c r="F2">
-        <v>1.01400304276804</v>
+        <v>1.05555155693387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053012230805808</v>
+        <v>1.064908577763377</v>
       </c>
       <c r="J2">
-        <v>0.9706345205212544</v>
+        <v>1.047570554572884</v>
       </c>
       <c r="K2">
-        <v>1.043522610493919</v>
+        <v>1.064919707771304</v>
       </c>
       <c r="L2">
-        <v>0.9720233167589447</v>
+        <v>1.051547243652999</v>
       </c>
       <c r="M2">
-        <v>1.025270680039004</v>
+        <v>1.06628764492564</v>
       </c>
       <c r="N2">
-        <v>0.9720129328737299</v>
+        <v>1.019187586207444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9580018056680938</v>
+        <v>1.031094872266982</v>
       </c>
       <c r="D3">
-        <v>1.038582492792126</v>
+        <v>1.057496658162346</v>
       </c>
       <c r="E3">
-        <v>0.969415150483663</v>
+        <v>1.044650008926761</v>
       </c>
       <c r="F3">
-        <v>1.02227977147614</v>
+        <v>1.059575249524343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055614194709092</v>
+        <v>1.066659555091732</v>
       </c>
       <c r="J3">
-        <v>0.9797067595144076</v>
+        <v>1.05077231530436</v>
       </c>
       <c r="K3">
-        <v>1.048744402583589</v>
+        <v>1.0674431462598</v>
       </c>
       <c r="L3">
-        <v>0.9804549285114151</v>
+        <v>1.05474176409736</v>
       </c>
       <c r="M3">
-        <v>1.032635299135387</v>
+        <v>1.069498640593924</v>
       </c>
       <c r="N3">
-        <v>0.9810980554868538</v>
+        <v>1.020291867245718</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9649675967717085</v>
+        <v>1.034230923568368</v>
       </c>
       <c r="D4">
-        <v>1.042350571341184</v>
+        <v>1.059609561773788</v>
       </c>
       <c r="E4">
-        <v>0.9752606070573601</v>
+        <v>1.047204710761393</v>
       </c>
       <c r="F4">
-        <v>1.027403608330229</v>
+        <v>1.062129902127301</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057205011883883</v>
+        <v>1.067759208947486</v>
       </c>
       <c r="J4">
-        <v>0.9853119660977192</v>
+        <v>1.052797758392513</v>
       </c>
       <c r="K4">
-        <v>1.051963380665482</v>
+        <v>1.069038088144478</v>
       </c>
       <c r="L4">
-        <v>0.985667079114003</v>
+        <v>1.056764937511748</v>
       </c>
       <c r="M4">
-        <v>1.037182174119281</v>
+        <v>1.071532129679847</v>
       </c>
       <c r="N4">
-        <v>0.9867112221064402</v>
+        <v>1.020989969713081</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9678248591619781</v>
+        <v>1.035533865934142</v>
       </c>
       <c r="D5">
-        <v>1.043896844368026</v>
+        <v>1.060488140380572</v>
       </c>
       <c r="E5">
-        <v>0.9776605143440517</v>
+        <v>1.048267412412206</v>
       </c>
       <c r="F5">
-        <v>1.029506067491323</v>
+        <v>1.063192561424618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057852840200003</v>
+        <v>1.06821372956417</v>
       </c>
       <c r="J5">
-        <v>0.9876100662800888</v>
+        <v>1.053638532469888</v>
       </c>
       <c r="K5">
-        <v>1.053280778648264</v>
+        <v>1.0696997958315</v>
       </c>
       <c r="L5">
-        <v>0.9878046664988441</v>
+        <v>1.057605317636565</v>
       </c>
       <c r="M5">
-        <v>1.039044949632318</v>
+        <v>1.072376755654291</v>
       </c>
       <c r="N5">
-        <v>0.9890125858546646</v>
+        <v>1.021279636775968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9683006077124</v>
+        <v>1.035751746393915</v>
       </c>
       <c r="D6">
-        <v>1.04415432184857</v>
+        <v>1.060635098464127</v>
       </c>
       <c r="E6">
-        <v>0.9780602335047218</v>
+        <v>1.048445193961838</v>
       </c>
       <c r="F6">
-        <v>1.029856157452022</v>
+        <v>1.063370334272856</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057960418862918</v>
+        <v>1.068289595591613</v>
       </c>
       <c r="J6">
-        <v>0.9879926438486317</v>
+        <v>1.053779083632744</v>
       </c>
       <c r="K6">
-        <v>1.053499937250023</v>
+        <v>1.069810390550944</v>
       </c>
       <c r="L6">
-        <v>0.988160559564105</v>
+        <v>1.057745835002443</v>
       </c>
       <c r="M6">
-        <v>1.039354956016666</v>
+        <v>1.072517980358696</v>
       </c>
       <c r="N6">
-        <v>0.9893957067272371</v>
+        <v>1.02132805282154</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9650060472393073</v>
+        <v>1.034248393496256</v>
       </c>
       <c r="D7">
-        <v>1.042371378153221</v>
+        <v>1.059621339037571</v>
       </c>
       <c r="E7">
-        <v>0.9752928944512834</v>
+        <v>1.047218954482883</v>
       </c>
       <c r="F7">
-        <v>1.027431899485688</v>
+        <v>1.062144145382528</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057213748957903</v>
+        <v>1.06776531255066</v>
       </c>
       <c r="J7">
-        <v>0.9853428963281908</v>
+        <v>1.052809034518375</v>
       </c>
       <c r="K7">
-        <v>1.051981121742946</v>
+        <v>1.069046964173826</v>
       </c>
       <c r="L7">
-        <v>0.985695846490225</v>
+        <v>1.056776206195291</v>
       </c>
       <c r="M7">
-        <v>1.037207251695566</v>
+        <v>1.071543455464115</v>
       </c>
       <c r="N7">
-        <v>0.9867421962613867</v>
+        <v>1.020993855094093</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9506140937579129</v>
+        <v>1.027831868826356</v>
       </c>
       <c r="D8">
-        <v>1.034591051316033</v>
+        <v>1.055300947426376</v>
       </c>
       <c r="E8">
-        <v>0.9632240387845968</v>
+        <v>1.041996515887654</v>
       </c>
       <c r="F8">
-        <v>1.016850691490121</v>
+        <v>1.056921765072988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053911616365553</v>
+        <v>1.065507362598174</v>
       </c>
       <c r="J8">
-        <v>0.9737587554777494</v>
+        <v>1.048662419028793</v>
       </c>
       <c r="K8">
-        <v>1.045321995987553</v>
+        <v>1.065780525486677</v>
       </c>
       <c r="L8">
-        <v>0.9749263350796235</v>
+        <v>1.052636149908861</v>
       </c>
       <c r="M8">
-        <v>1.027807146415694</v>
+        <v>1.067382185296965</v>
       </c>
       <c r="N8">
-        <v>0.9751416046022179</v>
+        <v>1.019564262206078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9224134664306129</v>
+        <v>1.015982759285682</v>
       </c>
       <c r="D9">
-        <v>1.019450035920011</v>
+        <v>1.047352953239698</v>
       </c>
       <c r="E9">
-        <v>0.9396742629819611</v>
+        <v>1.032399730474727</v>
       </c>
       <c r="F9">
-        <v>0.9962237302345771</v>
+        <v>1.047325318226794</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04731438614187</v>
+        <v>1.061263200124916</v>
       </c>
       <c r="J9">
-        <v>0.951038452596294</v>
+        <v>1.040983480218509</v>
       </c>
       <c r="K9">
-        <v>1.032235239284401</v>
+        <v>1.05972179371349</v>
       </c>
       <c r="L9">
-        <v>0.9538282861716488</v>
+        <v>1.044988139899403</v>
       </c>
       <c r="M9">
-        <v>1.00937837334991</v>
+        <v>1.059694557158086</v>
       </c>
       <c r="N9">
-        <v>0.9523890362846161</v>
+        <v>1.016913449772098</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9010824329394022</v>
+        <v>1.007675688602126</v>
       </c>
       <c r="D10">
-        <v>1.008157817243196</v>
+        <v>1.041806830828857</v>
       </c>
       <c r="E10">
-        <v>0.9219545065252684</v>
+        <v>1.025707566221509</v>
       </c>
       <c r="F10">
-        <v>0.9807844158198987</v>
+        <v>1.040634397168554</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042276990137082</v>
+        <v>1.058240433854997</v>
       </c>
       <c r="J10">
-        <v>0.9338558076988613</v>
+        <v>1.035588044732308</v>
       </c>
       <c r="K10">
-        <v>1.022381325536905</v>
+        <v>1.055460161217027</v>
       </c>
       <c r="L10">
-        <v>0.9378919766163729</v>
+        <v>1.039627673882302</v>
       </c>
       <c r="M10">
-        <v>0.995509502671007</v>
+        <v>1.054306797632619</v>
       </c>
       <c r="N10">
-        <v>0.935181990060552</v>
+        <v>1.015049083641808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8910546608191801</v>
+        <v>1.003971447163644</v>
       </c>
       <c r="D11">
-        <v>1.002913719581327</v>
+        <v>1.039341205600917</v>
       </c>
       <c r="E11">
-        <v>0.9136542547743869</v>
+        <v>1.022732868547835</v>
       </c>
       <c r="F11">
-        <v>0.973592002021696</v>
+        <v>1.037660695728515</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03990958081345</v>
+        <v>1.056882060608469</v>
       </c>
       <c r="J11">
-        <v>0.9257844350380539</v>
+        <v>1.033179937531908</v>
       </c>
       <c r="K11">
-        <v>1.01778089581584</v>
+        <v>1.053557478057248</v>
       </c>
       <c r="L11">
-        <v>0.9304114803908414</v>
+        <v>1.037238443049238</v>
       </c>
       <c r="M11">
-        <v>0.9890297305057639</v>
+        <v>1.051905696924402</v>
       </c>
       <c r="N11">
-        <v>0.9270991551247669</v>
+        <v>1.014216648579889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8871891221833471</v>
+        <v>1.002578444847254</v>
       </c>
       <c r="D12">
-        <v>1.000904739533853</v>
+        <v>1.038415232304394</v>
       </c>
       <c r="E12">
-        <v>0.910459976971994</v>
+        <v>1.02161571671586</v>
       </c>
       <c r="F12">
-        <v>0.9708322730837438</v>
+        <v>1.036544003347446</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038998392464525</v>
+        <v>1.056369728728863</v>
       </c>
       <c r="J12">
-        <v>0.9226746124480517</v>
+        <v>1.032274079721704</v>
       </c>
       <c r="K12">
-        <v>1.01601462666509</v>
+        <v>1.052841695102297</v>
       </c>
       <c r="L12">
-        <v>0.9275302188253621</v>
+        <v>1.036340188942684</v>
       </c>
       <c r="M12">
-        <v>0.9865404592462593</v>
+        <v>1.0510030411042</v>
       </c>
       <c r="N12">
-        <v>0.9239849162299851</v>
+        <v>1.013903472047062</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8880250830554315</v>
+        <v>1.002878038013019</v>
       </c>
       <c r="D13">
-        <v>1.001338584566864</v>
+        <v>1.038614323512046</v>
       </c>
       <c r="E13">
-        <v>0.9111505153850594</v>
+        <v>1.021855913471476</v>
       </c>
       <c r="F13">
-        <v>0.9714284593622754</v>
+        <v>1.036784097149924</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039195358412785</v>
+        <v>1.056479982993692</v>
       </c>
       <c r="J13">
-        <v>0.9233470605507292</v>
+        <v>1.032468914123613</v>
       </c>
       <c r="K13">
-        <v>1.016396236383542</v>
+        <v>1.052995649258319</v>
       </c>
       <c r="L13">
-        <v>0.9281532021336953</v>
+        <v>1.036533364996353</v>
       </c>
       <c r="M13">
-        <v>0.9870783553260839</v>
+        <v>1.051197160752105</v>
       </c>
       <c r="N13">
-        <v>0.9246583192860994</v>
+        <v>1.013970832545404</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8907381546528641</v>
+        <v>1.003856655515984</v>
       </c>
       <c r="D14">
-        <v>1.002748955255685</v>
+        <v>1.03926487401508</v>
       </c>
       <c r="E14">
-        <v>0.9133925977276524</v>
+        <v>1.022640777609576</v>
       </c>
       <c r="F14">
-        <v>0.9733657604240303</v>
+        <v>1.037568640818245</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039834936776088</v>
+        <v>1.056839871659989</v>
       </c>
       <c r="J14">
-        <v>0.925529770606861</v>
+        <v>1.033105294720866</v>
       </c>
       <c r="K14">
-        <v>1.017636116916224</v>
+        <v>1.053498498216063</v>
       </c>
       <c r="L14">
-        <v>0.9301755141441634</v>
+        <v>1.037164416492465</v>
       </c>
       <c r="M14">
-        <v>0.9888257220704384</v>
+        <v>1.051831306279453</v>
       </c>
       <c r="N14">
-        <v>0.9268441290408712</v>
+        <v>1.014190843534188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8923903544830168</v>
+        <v>1.00445732015848</v>
       </c>
       <c r="D15">
-        <v>1.003609568534332</v>
+        <v>1.039664341815568</v>
       </c>
       <c r="E15">
-        <v>0.9147586991222917</v>
+        <v>1.023122719042716</v>
       </c>
       <c r="F15">
-        <v>0.9745473050314521</v>
+        <v>1.038050397297907</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040224652798801</v>
+        <v>1.057060570686955</v>
       </c>
       <c r="J15">
-        <v>0.9268592160738817</v>
+        <v>1.033495863665099</v>
       </c>
       <c r="K15">
-        <v>1.01839218219822</v>
+        <v>1.053807108777625</v>
       </c>
       <c r="L15">
-        <v>0.9314073849088833</v>
+        <v>1.037551781449771</v>
       </c>
       <c r="M15">
-        <v>0.9898910327531597</v>
+        <v>1.052220579013295</v>
       </c>
       <c r="N15">
-        <v>0.9281754624729444</v>
+        <v>1.014325867038516</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9017295348616429</v>
+        <v>1.007919186437623</v>
       </c>
       <c r="D16">
-        <v>1.008497756533548</v>
+        <v>1.041969073710115</v>
       </c>
       <c r="E16">
-        <v>0.9224908027317377</v>
+        <v>1.025903310988206</v>
       </c>
       <c r="F16">
-        <v>0.9812501148365198</v>
+        <v>1.040830087179083</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042429876762986</v>
+        <v>1.05832951372248</v>
       </c>
       <c r="J16">
-        <v>0.9343768359352723</v>
+        <v>1.035746300147838</v>
       </c>
       <c r="K16">
-        <v>1.02267902581385</v>
+        <v>1.055585191950128</v>
       </c>
       <c r="L16">
-        <v>0.9383749793839885</v>
+        <v>1.039784757809097</v>
       </c>
       <c r="M16">
-        <v>0.9959286614960304</v>
+        <v>1.054464669485536</v>
       </c>
       <c r="N16">
-        <v>0.9357037582168213</v>
+        <v>1.015103783431552</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9073622029155366</v>
+        <v>1.010061352600062</v>
       </c>
       <c r="D17">
-        <v>1.011464123207559</v>
+        <v>1.04339726474792</v>
       </c>
       <c r="E17">
-        <v>0.9271623421608637</v>
+        <v>1.027626453446994</v>
       </c>
       <c r="F17">
-        <v>0.9853112949166339</v>
+        <v>1.042552800312393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043760869419103</v>
+        <v>1.059112007576734</v>
       </c>
       <c r="J17">
-        <v>0.9389128462270223</v>
+        <v>1.037138303979978</v>
       </c>
       <c r="K17">
-        <v>1.025274086888774</v>
+        <v>1.056684888384687</v>
       </c>
       <c r="L17">
-        <v>0.9425805516856013</v>
+        <v>1.041166830286081</v>
       </c>
       <c r="M17">
-        <v>0.9995818671457282</v>
+        <v>1.055853709877959</v>
       </c>
       <c r="N17">
-        <v>0.9402462101634733</v>
+        <v>1.015584883178834</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9105730378384355</v>
+        <v>1.011300565717451</v>
       </c>
       <c r="D18">
-        <v>1.013160767095272</v>
+        <v>1.044224153389097</v>
       </c>
       <c r="E18">
-        <v>0.9298279740377244</v>
+        <v>1.028624155848398</v>
       </c>
       <c r="F18">
-        <v>0.9876321291535053</v>
+        <v>1.043550294981524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044519554222521</v>
+        <v>1.059563671321323</v>
       </c>
       <c r="J18">
-        <v>0.941499070767862</v>
+        <v>1.037943345723936</v>
       </c>
       <c r="K18">
-        <v>1.026756130661307</v>
+        <v>1.057320817633647</v>
       </c>
       <c r="L18">
-        <v>0.9449788670963201</v>
+        <v>1.041966437304222</v>
       </c>
       <c r="M18">
-        <v>1.001667818708655</v>
+        <v>1.056657375089349</v>
       </c>
       <c r="N18">
-        <v>0.9428361074398053</v>
+        <v>1.015863087556338</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9116557682190457</v>
+        <v>1.01172139069599</v>
       </c>
       <c r="D19">
-        <v>1.013733789662525</v>
+        <v>1.044505072261135</v>
       </c>
       <c r="E19">
-        <v>0.930727288541214</v>
+        <v>1.028963114404273</v>
       </c>
       <c r="F19">
-        <v>0.9884156514242748</v>
+        <v>1.043889189353473</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044775352872671</v>
+        <v>1.0597168808079</v>
       </c>
       <c r="J19">
-        <v>0.9423712490994791</v>
+        <v>1.038216692469595</v>
       </c>
       <c r="K19">
-        <v>1.027256302119785</v>
+        <v>1.057536731663502</v>
       </c>
       <c r="L19">
-        <v>0.9457877561326054</v>
+        <v>1.042237990782139</v>
       </c>
       <c r="M19">
-        <v>1.002371752108951</v>
+        <v>1.056930310844078</v>
       </c>
       <c r="N19">
-        <v>0.9437095243646932</v>
+        <v>1.01595754444475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9067657273256371</v>
+        <v>1.009832588150916</v>
       </c>
       <c r="D20">
-        <v>1.011149384812371</v>
+        <v>1.043244673078767</v>
       </c>
       <c r="E20">
-        <v>0.9266673614711339</v>
+        <v>1.027442344244706</v>
       </c>
       <c r="F20">
-        <v>0.9848806088976181</v>
+        <v>1.042368732615093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04361991811014</v>
+        <v>1.059028547226899</v>
       </c>
       <c r="J20">
-        <v>0.9384324433007294</v>
+        <v>1.036989671955297</v>
       </c>
       <c r="K20">
-        <v>1.024998978465131</v>
+        <v>1.05656747373958</v>
       </c>
       <c r="L20">
-        <v>0.9421350932040321</v>
+        <v>1.041019226549232</v>
       </c>
       <c r="M20">
-        <v>0.9991946286334747</v>
+        <v>1.05570535907425</v>
       </c>
       <c r="N20">
-        <v>0.9397651250099224</v>
+        <v>1.01553351667157</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8899433155340595</v>
+        <v>1.003568956789467</v>
       </c>
       <c r="D21">
-        <v>1.002335395451234</v>
+        <v>1.039073586924277</v>
       </c>
       <c r="E21">
-        <v>0.9127355892539889</v>
+        <v>1.022409997434691</v>
       </c>
       <c r="F21">
-        <v>0.9727978184741453</v>
+        <v>1.037337952369798</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039647511365595</v>
+        <v>1.056734110769124</v>
       </c>
       <c r="J21">
-        <v>0.9248902613857986</v>
+        <v>1.032918215547639</v>
       </c>
       <c r="K21">
-        <v>1.017272657718352</v>
+        <v>1.053350674876197</v>
       </c>
       <c r="L21">
-        <v>0.9295829742730654</v>
+        <v>1.036978889995539</v>
       </c>
       <c r="M21">
-        <v>0.9883135444517348</v>
+        <v>1.051644868337695</v>
       </c>
       <c r="N21">
-        <v>0.9262037116433622</v>
+        <v>1.014126167091116</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8785360376668143</v>
+        <v>0.9995313938804233</v>
       </c>
       <c r="D22">
-        <v>0.9964347591745872</v>
+        <v>1.03639217606942</v>
       </c>
       <c r="E22">
-        <v>0.903320597699213</v>
+        <v>1.019174918632584</v>
       </c>
       <c r="F22">
-        <v>0.9646824537585813</v>
+        <v>1.03410438756802</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036963053198017</v>
+        <v>1.055246359059737</v>
       </c>
       <c r="J22">
-        <v>0.9157169618256021</v>
+        <v>1.030292168193479</v>
       </c>
       <c r="K22">
-        <v>1.012077176592085</v>
+        <v>1.051275600974013</v>
       </c>
       <c r="L22">
-        <v>0.9210857284894869</v>
+        <v>1.034375852617013</v>
       </c>
       <c r="M22">
-        <v>0.9809875978741596</v>
+        <v>1.049029210006301</v>
       </c>
       <c r="N22">
-        <v>0.917017384945598</v>
+        <v>1.013218216485515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8846710178371906</v>
+        <v>1.001681546121257</v>
       </c>
       <c r="D23">
-        <v>0.9995999975576298</v>
+        <v>1.037819399638578</v>
       </c>
       <c r="E23">
-        <v>0.9083807780183619</v>
+        <v>1.020896861049561</v>
       </c>
       <c r="F23">
-        <v>0.9690385774361476</v>
+        <v>1.035825469800734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038405411499369</v>
+        <v>1.056039442514921</v>
       </c>
       <c r="J23">
-        <v>0.9206493316350651</v>
+        <v>1.031690763937163</v>
       </c>
       <c r="K23">
-        <v>1.014866387407803</v>
+        <v>1.052380766883078</v>
       </c>
       <c r="L23">
-        <v>0.925654056552643</v>
+        <v>1.035761912771333</v>
       </c>
       <c r="M23">
-        <v>0.984921685837393</v>
+        <v>1.050421950512197</v>
       </c>
       <c r="N23">
-        <v>0.9219567592859411</v>
+        <v>1.013701796054593</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9070354779323213</v>
+        <v>1.009935988643575</v>
       </c>
       <c r="D24">
-        <v>1.011291704770408</v>
+        <v>1.043313641658324</v>
       </c>
       <c r="E24">
-        <v>0.9268912036489466</v>
+        <v>1.027525558019101</v>
       </c>
       <c r="F24">
-        <v>0.9850753647826476</v>
+        <v>1.042451927504823</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043683662235154</v>
+        <v>1.059066274026042</v>
       </c>
       <c r="J24">
-        <v>0.9386496995128752</v>
+        <v>1.037056853620528</v>
       </c>
       <c r="K24">
-        <v>1.02512338527355</v>
+        <v>1.056620545345199</v>
       </c>
       <c r="L24">
-        <v>0.9423365447012955</v>
+        <v>1.041085942471286</v>
       </c>
       <c r="M24">
-        <v>0.9993697429982723</v>
+        <v>1.055772412583582</v>
       </c>
       <c r="N24">
-        <v>0.9399826897508087</v>
+        <v>1.015556734427773</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9300966326697446</v>
+        <v>1.019114556097625</v>
       </c>
       <c r="D25">
-        <v>1.023555536175043</v>
+        <v>1.049449594595531</v>
       </c>
       <c r="E25">
-        <v>0.9460768594914164</v>
+        <v>1.034930337612043</v>
       </c>
       <c r="F25">
-        <v>1.001823562432596</v>
+        <v>1.049855726228596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049122769352271</v>
+        <v>1.062393337951683</v>
       </c>
       <c r="J25">
-        <v>0.9572294491717183</v>
+        <v>1.043015328998494</v>
       </c>
       <c r="K25">
-        <v>1.035798865416193</v>
+        <v>1.061325875097043</v>
       </c>
       <c r="L25">
-        <v>0.9595742188173396</v>
+        <v>1.047009567493916</v>
       </c>
       <c r="M25">
-        <v>1.014393635747331</v>
+        <v>1.061726431527445</v>
       </c>
       <c r="N25">
-        <v>0.9585888247852948</v>
+        <v>1.017615205186268</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02614466418837</v>
+        <v>1.052715860460884</v>
       </c>
       <c r="D2">
-        <v>1.054166742689139</v>
+        <v>1.061967517465511</v>
       </c>
       <c r="E2">
-        <v>1.040626305782895</v>
+        <v>1.059912666932644</v>
       </c>
       <c r="F2">
-        <v>1.05555155693387</v>
+        <v>1.071623534516373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064908577763377</v>
+        <v>1.053178888479634</v>
       </c>
       <c r="J2">
-        <v>1.047570554572884</v>
+        <v>1.057737001665972</v>
       </c>
       <c r="K2">
-        <v>1.064919707771304</v>
+        <v>1.064690140997008</v>
       </c>
       <c r="L2">
-        <v>1.051547243652999</v>
+        <v>1.062640877421111</v>
       </c>
       <c r="M2">
-        <v>1.06628764492564</v>
+        <v>1.074320214451601</v>
       </c>
       <c r="N2">
-        <v>1.019187586207444</v>
+        <v>1.022993979595092</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031094872266982</v>
+        <v>1.053758222802232</v>
       </c>
       <c r="D3">
-        <v>1.057496658162346</v>
+        <v>1.062673508311454</v>
       </c>
       <c r="E3">
-        <v>1.044650008926761</v>
+        <v>1.06080305019</v>
       </c>
       <c r="F3">
-        <v>1.059575249524343</v>
+        <v>1.072508628648978</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066659555091732</v>
+        <v>1.05347952164289</v>
       </c>
       <c r="J3">
-        <v>1.05077231530436</v>
+        <v>1.058429507069345</v>
       </c>
       <c r="K3">
-        <v>1.0674431462598</v>
+        <v>1.06521112991984</v>
       </c>
       <c r="L3">
-        <v>1.05474176409736</v>
+        <v>1.063345390897089</v>
       </c>
       <c r="M3">
-        <v>1.069498640593924</v>
+        <v>1.075021728117258</v>
       </c>
       <c r="N3">
-        <v>1.020291867245718</v>
+        <v>1.023229410875736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034230923568368</v>
+        <v>1.054433076831815</v>
       </c>
       <c r="D4">
-        <v>1.059609561773788</v>
+        <v>1.063130545541598</v>
       </c>
       <c r="E4">
-        <v>1.047204710761393</v>
+        <v>1.061379823220677</v>
       </c>
       <c r="F4">
-        <v>1.062129902127301</v>
+        <v>1.073081929138189</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067759208947486</v>
+        <v>1.053672926559786</v>
       </c>
       <c r="J4">
-        <v>1.052797758392513</v>
+        <v>1.058877373076295</v>
       </c>
       <c r="K4">
-        <v>1.069038088144478</v>
+        <v>1.065547782062059</v>
       </c>
       <c r="L4">
-        <v>1.056764937511748</v>
+        <v>1.063801255030026</v>
       </c>
       <c r="M4">
-        <v>1.071532129679847</v>
+        <v>1.07547559803923</v>
       </c>
       <c r="N4">
-        <v>1.020989969713081</v>
+        <v>1.023381552353683</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035533865934142</v>
+        <v>1.054716875038016</v>
       </c>
       <c r="D5">
-        <v>1.060488140380572</v>
+        <v>1.063322733971634</v>
       </c>
       <c r="E5">
-        <v>1.048267412412206</v>
+        <v>1.06162244974679</v>
       </c>
       <c r="F5">
-        <v>1.063192561424618</v>
+        <v>1.073323083652609</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06821372956417</v>
+        <v>1.053753964213377</v>
       </c>
       <c r="J5">
-        <v>1.053638532469888</v>
+        <v>1.059065599928741</v>
       </c>
       <c r="K5">
-        <v>1.0696997958315</v>
+        <v>1.065689199039169</v>
       </c>
       <c r="L5">
-        <v>1.057605317636565</v>
+        <v>1.063992898769816</v>
       </c>
       <c r="M5">
-        <v>1.072376755654291</v>
+        <v>1.075666390548616</v>
       </c>
       <c r="N5">
-        <v>1.021279636775968</v>
+        <v>1.023445464841545</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035751746393915</v>
+        <v>1.054764531246152</v>
       </c>
       <c r="D6">
-        <v>1.060635098464127</v>
+        <v>1.063355006149383</v>
       </c>
       <c r="E6">
-        <v>1.048445193961838</v>
+        <v>1.061663196642194</v>
       </c>
       <c r="F6">
-        <v>1.063370334272856</v>
+        <v>1.073363582673444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068289595591613</v>
+        <v>1.053767554958323</v>
       </c>
       <c r="J6">
-        <v>1.053779083632744</v>
+        <v>1.059097200741973</v>
       </c>
       <c r="K6">
-        <v>1.069810390550944</v>
+        <v>1.065712937003782</v>
       </c>
       <c r="L6">
-        <v>1.057745835002443</v>
+        <v>1.064025076484051</v>
       </c>
       <c r="M6">
-        <v>1.072517980358696</v>
+        <v>1.075698424578962</v>
       </c>
       <c r="N6">
-        <v>1.02132805282154</v>
+        <v>1.023456193217935</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034248393496256</v>
+        <v>1.054436868605886</v>
       </c>
       <c r="D7">
-        <v>1.059621339037571</v>
+        <v>1.063133113377985</v>
       </c>
       <c r="E7">
-        <v>1.047218954482883</v>
+        <v>1.061383064615555</v>
       </c>
       <c r="F7">
-        <v>1.062144145382528</v>
+        <v>1.073085150911933</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06776531255066</v>
+        <v>1.053674010449506</v>
       </c>
       <c r="J7">
-        <v>1.052809034518375</v>
+        <v>1.05887988839362</v>
       </c>
       <c r="K7">
-        <v>1.069046964173826</v>
+        <v>1.065549672122146</v>
       </c>
       <c r="L7">
-        <v>1.056776206195291</v>
+        <v>1.063803815790085</v>
       </c>
       <c r="M7">
-        <v>1.071543455464115</v>
+        <v>1.075478147475837</v>
       </c>
       <c r="N7">
-        <v>1.020993855094093</v>
+        <v>1.023382406543648</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027831868826356</v>
+        <v>1.053068053610719</v>
       </c>
       <c r="D8">
-        <v>1.055300947426376</v>
+        <v>1.062206065333576</v>
       </c>
       <c r="E8">
-        <v>1.041996515887654</v>
+        <v>1.060213443931006</v>
       </c>
       <c r="F8">
-        <v>1.056921765072988</v>
+        <v>1.071922534315543</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065507362598174</v>
+        <v>1.053280721479436</v>
       </c>
       <c r="J8">
-        <v>1.048662419028793</v>
+        <v>1.057971084612779</v>
       </c>
       <c r="K8">
-        <v>1.065780525486677</v>
+        <v>1.064866306899378</v>
       </c>
       <c r="L8">
-        <v>1.052636149908861</v>
+        <v>1.062878971243229</v>
       </c>
       <c r="M8">
-        <v>1.067382185296965</v>
+        <v>1.074557305388998</v>
       </c>
       <c r="N8">
-        <v>1.019564262206078</v>
+        <v>1.023073585569136</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015982759285682</v>
+        <v>1.050658923865025</v>
       </c>
       <c r="D9">
-        <v>1.047352953239698</v>
+        <v>1.060574181427516</v>
       </c>
       <c r="E9">
-        <v>1.032399730474727</v>
+        <v>1.058157334323927</v>
       </c>
       <c r="F9">
-        <v>1.047325318226794</v>
+        <v>1.069878389780482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061263200124916</v>
+        <v>1.052579102438478</v>
       </c>
       <c r="J9">
-        <v>1.040983480218509</v>
+        <v>1.056367913109092</v>
       </c>
       <c r="K9">
-        <v>1.05972179371349</v>
+        <v>1.063658625227009</v>
       </c>
       <c r="L9">
-        <v>1.044988139899403</v>
+        <v>1.061249286692129</v>
       </c>
       <c r="M9">
-        <v>1.059694557158086</v>
+        <v>1.072934273102435</v>
       </c>
       <c r="N9">
-        <v>1.016913449772098</v>
+        <v>1.02252789866036</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007675688602126</v>
+        <v>1.049054807634413</v>
       </c>
       <c r="D10">
-        <v>1.041806830828857</v>
+        <v>1.05948747008068</v>
       </c>
       <c r="E10">
-        <v>1.025707566221509</v>
+        <v>1.056789954968985</v>
       </c>
       <c r="F10">
-        <v>1.040634397168554</v>
+        <v>1.068518743023322</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058240433854997</v>
+        <v>1.052105606579908</v>
       </c>
       <c r="J10">
-        <v>1.035588044732308</v>
+        <v>1.055297996944893</v>
       </c>
       <c r="K10">
-        <v>1.055460161217027</v>
+        <v>1.062851197489703</v>
       </c>
       <c r="L10">
-        <v>1.039627673882302</v>
+        <v>1.060162881721428</v>
       </c>
       <c r="M10">
-        <v>1.054306797632619</v>
+        <v>1.071852042315926</v>
       </c>
       <c r="N10">
-        <v>1.015049083641808</v>
+        <v>1.022163113857794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003971447163644</v>
+        <v>1.048360678894503</v>
       </c>
       <c r="D11">
-        <v>1.039341205600917</v>
+        <v>1.059017214469353</v>
       </c>
       <c r="E11">
-        <v>1.022732868547835</v>
+        <v>1.05619867350257</v>
       </c>
       <c r="F11">
-        <v>1.037660695728515</v>
+        <v>1.067930753973172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056882060608469</v>
+        <v>1.051899219526611</v>
       </c>
       <c r="J11">
-        <v>1.033179937531908</v>
+        <v>1.054834449500794</v>
       </c>
       <c r="K11">
-        <v>1.053557478057248</v>
+        <v>1.062501035499141</v>
       </c>
       <c r="L11">
-        <v>1.037238443049238</v>
+        <v>1.05969247763122</v>
       </c>
       <c r="M11">
-        <v>1.051905696924402</v>
+        <v>1.071383385731499</v>
       </c>
       <c r="N11">
-        <v>1.014216648579889</v>
+        <v>1.022004926070335</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002578444847254</v>
+        <v>1.048102918539144</v>
       </c>
       <c r="D12">
-        <v>1.038415232304394</v>
+        <v>1.058842586491686</v>
       </c>
       <c r="E12">
-        <v>1.02161571671586</v>
+        <v>1.055979166761391</v>
       </c>
       <c r="F12">
-        <v>1.036544003347446</v>
+        <v>1.067712461958684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056369728728863</v>
+        <v>1.051822354239159</v>
       </c>
       <c r="J12">
-        <v>1.032274079721704</v>
+        <v>1.054662227802604</v>
       </c>
       <c r="K12">
-        <v>1.052841695102297</v>
+        <v>1.062370889332669</v>
       </c>
       <c r="L12">
-        <v>1.036340188942684</v>
+        <v>1.059517751755222</v>
       </c>
       <c r="M12">
-        <v>1.0510030411042</v>
+        <v>1.071209300105334</v>
       </c>
       <c r="N12">
-        <v>1.013903472047062</v>
+        <v>1.021946133271536</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002878038013019</v>
+        <v>1.048158205840588</v>
       </c>
       <c r="D13">
-        <v>1.038614323512046</v>
+        <v>1.058880042689815</v>
       </c>
       <c r="E13">
-        <v>1.021855913471476</v>
+        <v>1.056026246188781</v>
       </c>
       <c r="F13">
-        <v>1.036784097149924</v>
+        <v>1.067759281192518</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056479982993692</v>
+        <v>1.051838851326622</v>
       </c>
       <c r="J13">
-        <v>1.032468914123613</v>
+        <v>1.054699171722156</v>
       </c>
       <c r="K13">
-        <v>1.052995649258319</v>
+        <v>1.062398809753393</v>
       </c>
       <c r="L13">
-        <v>1.036533364996353</v>
+        <v>1.059555230895377</v>
       </c>
       <c r="M13">
-        <v>1.051197160752105</v>
+        <v>1.071246642307812</v>
       </c>
       <c r="N13">
-        <v>1.013970832545404</v>
+        <v>1.021958746097259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003856655515984</v>
+        <v>1.048339370914522</v>
       </c>
       <c r="D14">
-        <v>1.03926487401508</v>
+        <v>1.05900277872315</v>
       </c>
       <c r="E14">
-        <v>1.022640777609576</v>
+        <v>1.056180526522598</v>
       </c>
       <c r="F14">
-        <v>1.037568640818245</v>
+        <v>1.067912707569674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056839871659989</v>
+        <v>1.051892869976031</v>
       </c>
       <c r="J14">
-        <v>1.033105294720866</v>
+        <v>1.054820214404995</v>
       </c>
       <c r="K14">
-        <v>1.053498498216063</v>
+        <v>1.062490279212268</v>
       </c>
       <c r="L14">
-        <v>1.037164416492465</v>
+        <v>1.059678034667656</v>
       </c>
       <c r="M14">
-        <v>1.051831306279453</v>
+        <v>1.071368995870867</v>
       </c>
       <c r="N14">
-        <v>1.014190843534188</v>
+        <v>1.022000066947772</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00445732015848</v>
+        <v>1.048451001973701</v>
       </c>
       <c r="D15">
-        <v>1.039664341815568</v>
+        <v>1.059078406561044</v>
       </c>
       <c r="E15">
-        <v>1.023122719042716</v>
+        <v>1.056275599858211</v>
       </c>
       <c r="F15">
-        <v>1.038050397297907</v>
+        <v>1.068007253669732</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057060570686955</v>
+        <v>1.051926125636232</v>
       </c>
       <c r="J15">
-        <v>1.033495863665099</v>
+        <v>1.054894787573486</v>
       </c>
       <c r="K15">
-        <v>1.053807108777625</v>
+        <v>1.062546625932829</v>
       </c>
       <c r="L15">
-        <v>1.037551781449771</v>
+        <v>1.059753698562258</v>
       </c>
       <c r="M15">
-        <v>1.052220579013295</v>
+        <v>1.07144438120838</v>
       </c>
       <c r="N15">
-        <v>1.014325867038516</v>
+        <v>1.02202552148305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007919186437623</v>
+        <v>1.049100884471746</v>
       </c>
       <c r="D16">
-        <v>1.041969073710115</v>
+        <v>1.059518685767787</v>
       </c>
       <c r="E16">
-        <v>1.025903310988206</v>
+        <v>1.0568292133645</v>
       </c>
       <c r="F16">
-        <v>1.040830087179083</v>
+        <v>1.06855778174964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05832951372248</v>
+        <v>1.052119275185679</v>
       </c>
       <c r="J16">
-        <v>1.035746300147838</v>
+        <v>1.055328755488405</v>
       </c>
       <c r="K16">
-        <v>1.055585191950128</v>
+        <v>1.062874425268051</v>
       </c>
       <c r="L16">
-        <v>1.039784757809097</v>
+        <v>1.060194101295788</v>
       </c>
       <c r="M16">
-        <v>1.054464669485536</v>
+        <v>1.071883144664322</v>
       </c>
       <c r="N16">
-        <v>1.015103783431552</v>
+        <v>1.022173607363187</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010061352600062</v>
+        <v>1.049508663024782</v>
       </c>
       <c r="D17">
-        <v>1.04339726474792</v>
+        <v>1.059794941789885</v>
       </c>
       <c r="E17">
-        <v>1.027626453446994</v>
+        <v>1.057176696068565</v>
       </c>
       <c r="F17">
-        <v>1.042552800312393</v>
+        <v>1.068903314213207</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059112007576734</v>
+        <v>1.052240068914942</v>
       </c>
       <c r="J17">
-        <v>1.037138303979978</v>
+        <v>1.055600901069424</v>
       </c>
       <c r="K17">
-        <v>1.056684888384687</v>
+        <v>1.063079900990211</v>
       </c>
       <c r="L17">
-        <v>1.041166830286081</v>
+        <v>1.060470359173471</v>
       </c>
       <c r="M17">
-        <v>1.055853709877959</v>
+        <v>1.072158358327008</v>
       </c>
       <c r="N17">
-        <v>1.015584883178834</v>
+        <v>1.022266435389183</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011300565717451</v>
+        <v>1.049746558126138</v>
       </c>
       <c r="D18">
-        <v>1.044224153389097</v>
+        <v>1.059956105885652</v>
       </c>
       <c r="E18">
-        <v>1.028624155848398</v>
+        <v>1.057379454250233</v>
       </c>
       <c r="F18">
-        <v>1.043550294981524</v>
+        <v>1.069104929452725</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059563671321323</v>
+        <v>1.052310394584151</v>
       </c>
       <c r="J18">
-        <v>1.037943345723936</v>
+        <v>1.055759613215739</v>
       </c>
       <c r="K18">
-        <v>1.057320817633647</v>
+        <v>1.063199699304162</v>
       </c>
       <c r="L18">
-        <v>1.041966437304222</v>
+        <v>1.060631497259366</v>
       </c>
       <c r="M18">
-        <v>1.056657375089349</v>
+        <v>1.072318881545981</v>
       </c>
       <c r="N18">
-        <v>1.015863087556338</v>
+        <v>1.022320557852292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.01172139069599</v>
+        <v>1.049827681794929</v>
       </c>
       <c r="D19">
-        <v>1.044505072261135</v>
+        <v>1.060011063497774</v>
       </c>
       <c r="E19">
-        <v>1.028963114404273</v>
+        <v>1.057448602651096</v>
       </c>
       <c r="F19">
-        <v>1.043889189353473</v>
+        <v>1.069173687218835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0597168808079</v>
+        <v>1.052334351541917</v>
       </c>
       <c r="J19">
-        <v>1.038216692469595</v>
+        <v>1.055813725569614</v>
       </c>
       <c r="K19">
-        <v>1.057536731663502</v>
+        <v>1.063240538555729</v>
       </c>
       <c r="L19">
-        <v>1.042237990782139</v>
+        <v>1.060686441423</v>
       </c>
       <c r="M19">
-        <v>1.056930310844078</v>
+        <v>1.072373615068422</v>
       </c>
       <c r="N19">
-        <v>1.01595754444475</v>
+        <v>1.022339008379554</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009832588150916</v>
+        <v>1.049464907612672</v>
       </c>
       <c r="D20">
-        <v>1.043244673078767</v>
+        <v>1.05976529916303</v>
       </c>
       <c r="E20">
-        <v>1.027442344244706</v>
+        <v>1.057139406450581</v>
       </c>
       <c r="F20">
-        <v>1.042368732615093</v>
+        <v>1.0688662343949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059028547226899</v>
+        <v>1.052227122465786</v>
       </c>
       <c r="J20">
-        <v>1.036989671955297</v>
+        <v>1.05557170508545</v>
       </c>
       <c r="K20">
-        <v>1.05656747373958</v>
+        <v>1.063057860783255</v>
       </c>
       <c r="L20">
-        <v>1.041019226549232</v>
+        <v>1.060440719153459</v>
       </c>
       <c r="M20">
-        <v>1.05570535907425</v>
+        <v>1.072128830939571</v>
       </c>
       <c r="N20">
-        <v>1.01553351667157</v>
+        <v>1.022256478151339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003568956789467</v>
+        <v>1.048286020382441</v>
       </c>
       <c r="D21">
-        <v>1.039073586924277</v>
+        <v>1.058966634744006</v>
       </c>
       <c r="E21">
-        <v>1.022409997434691</v>
+        <v>1.056135091447719</v>
       </c>
       <c r="F21">
-        <v>1.037337952369798</v>
+        <v>1.06786752418941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056734110769124</v>
+        <v>1.051876968456765</v>
       </c>
       <c r="J21">
-        <v>1.032918215547639</v>
+        <v>1.054784571438996</v>
       </c>
       <c r="K21">
-        <v>1.053350674876197</v>
+        <v>1.062463345949914</v>
       </c>
       <c r="L21">
-        <v>1.036978889995539</v>
+        <v>1.059641871925165</v>
       </c>
       <c r="M21">
-        <v>1.051644868337695</v>
+        <v>1.071332965946885</v>
       </c>
       <c r="N21">
-        <v>1.014126167091116</v>
+        <v>1.021987899945912</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9995313938804233</v>
+        <v>1.047545212102327</v>
       </c>
       <c r="D22">
-        <v>1.03639217606942</v>
+        <v>1.058464748842845</v>
       </c>
       <c r="E22">
-        <v>1.019174918632584</v>
+        <v>1.055504342284779</v>
       </c>
       <c r="F22">
-        <v>1.03410438756802</v>
+        <v>1.067240251489807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055246359059737</v>
+        <v>1.051655632967598</v>
       </c>
       <c r="J22">
-        <v>1.030292168193479</v>
+        <v>1.054289440782927</v>
       </c>
       <c r="K22">
-        <v>1.051275600974013</v>
+        <v>1.06208908602624</v>
       </c>
       <c r="L22">
-        <v>1.034375852617013</v>
+        <v>1.059139623516462</v>
       </c>
       <c r="M22">
-        <v>1.049029210006301</v>
+        <v>1.070832541451076</v>
       </c>
       <c r="N22">
-        <v>1.013218216485515</v>
+        <v>1.021818832899541</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001681546121257</v>
+        <v>1.047937890129659</v>
       </c>
       <c r="D23">
-        <v>1.037819399638578</v>
+        <v>1.058730782434114</v>
       </c>
       <c r="E23">
-        <v>1.020896861049561</v>
+        <v>1.055838647359283</v>
       </c>
       <c r="F23">
-        <v>1.035825469800734</v>
+        <v>1.06757271807162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056039442514921</v>
+        <v>1.051773078788452</v>
       </c>
       <c r="J23">
-        <v>1.031690763937163</v>
+        <v>1.054551940393175</v>
       </c>
       <c r="K23">
-        <v>1.052380766883078</v>
+        <v>1.06228753209356</v>
       </c>
       <c r="L23">
-        <v>1.035761912771333</v>
+        <v>1.059405872915259</v>
       </c>
       <c r="M23">
-        <v>1.050421950512197</v>
+        <v>1.071097828755046</v>
       </c>
       <c r="N23">
-        <v>1.013701796054593</v>
+        <v>1.021908477524491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009935988643575</v>
+        <v>1.049484678661557</v>
       </c>
       <c r="D24">
-        <v>1.043313641658324</v>
+        <v>1.059778693301796</v>
       </c>
       <c r="E24">
-        <v>1.027525558019101</v>
+        <v>1.057156255784736</v>
       </c>
       <c r="F24">
-        <v>1.042451927504823</v>
+        <v>1.068882988946323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059066274026042</v>
+        <v>1.052232972814497</v>
       </c>
       <c r="J24">
-        <v>1.037056853620528</v>
+        <v>1.055584897573491</v>
       </c>
       <c r="K24">
-        <v>1.056620545345199</v>
+        <v>1.063067819965408</v>
       </c>
       <c r="L24">
-        <v>1.041085942471286</v>
+        <v>1.060454112197928</v>
       </c>
       <c r="M24">
-        <v>1.055772412583582</v>
+        <v>1.072142173108155</v>
       </c>
       <c r="N24">
-        <v>1.015556734427773</v>
+        <v>1.022260977468217</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019114556097625</v>
+        <v>1.051281396034399</v>
       </c>
       <c r="D25">
-        <v>1.049449594595531</v>
+        <v>1.060995854367117</v>
       </c>
       <c r="E25">
-        <v>1.034930337612043</v>
+        <v>1.058688299913779</v>
       </c>
       <c r="F25">
-        <v>1.049855726228596</v>
+        <v>1.070406305823081</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062393337951683</v>
+        <v>1.052761503284734</v>
       </c>
       <c r="J25">
-        <v>1.043015328998494</v>
+        <v>1.056782574153441</v>
       </c>
       <c r="K25">
-        <v>1.061325875097043</v>
+        <v>1.063971250093409</v>
       </c>
       <c r="L25">
-        <v>1.047009567493916</v>
+        <v>1.061670593442424</v>
       </c>
       <c r="M25">
-        <v>1.061726431527445</v>
+        <v>1.073353906657804</v>
       </c>
       <c r="N25">
-        <v>1.017615205186268</v>
+        <v>1.02266914826192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052715860460884</v>
+        <v>1.02614466418837</v>
       </c>
       <c r="D2">
-        <v>1.061967517465511</v>
+        <v>1.054166742689139</v>
       </c>
       <c r="E2">
-        <v>1.059912666932644</v>
+        <v>1.040626305782894</v>
       </c>
       <c r="F2">
-        <v>1.071623534516373</v>
+        <v>1.055551556933869</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053178888479634</v>
+        <v>1.064908577763377</v>
       </c>
       <c r="J2">
-        <v>1.057737001665972</v>
+        <v>1.047570554572883</v>
       </c>
       <c r="K2">
-        <v>1.064690140997008</v>
+        <v>1.064919707771303</v>
       </c>
       <c r="L2">
-        <v>1.062640877421111</v>
+        <v>1.051547243652998</v>
       </c>
       <c r="M2">
-        <v>1.074320214451601</v>
+        <v>1.066287644925639</v>
       </c>
       <c r="N2">
-        <v>1.022993979595092</v>
+        <v>1.019187586207444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053758222802232</v>
+        <v>1.031094872266981</v>
       </c>
       <c r="D3">
-        <v>1.062673508311454</v>
+        <v>1.057496658162345</v>
       </c>
       <c r="E3">
-        <v>1.06080305019</v>
+        <v>1.04465000892676</v>
       </c>
       <c r="F3">
-        <v>1.072508628648978</v>
+        <v>1.059575249524341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05347952164289</v>
+        <v>1.066659555091731</v>
       </c>
       <c r="J3">
-        <v>1.058429507069345</v>
+        <v>1.050772315304358</v>
       </c>
       <c r="K3">
-        <v>1.06521112991984</v>
+        <v>1.067443146259799</v>
       </c>
       <c r="L3">
-        <v>1.063345390897089</v>
+        <v>1.054741764097358</v>
       </c>
       <c r="M3">
-        <v>1.075021728117258</v>
+        <v>1.069498640593923</v>
       </c>
       <c r="N3">
-        <v>1.023229410875736</v>
+        <v>1.020291867245717</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054433076831815</v>
+        <v>1.034230923568367</v>
       </c>
       <c r="D4">
-        <v>1.063130545541598</v>
+        <v>1.059609561773787</v>
       </c>
       <c r="E4">
-        <v>1.061379823220677</v>
+        <v>1.047204710761392</v>
       </c>
       <c r="F4">
-        <v>1.073081929138189</v>
+        <v>1.0621299021273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053672926559786</v>
+        <v>1.067759208947485</v>
       </c>
       <c r="J4">
-        <v>1.058877373076295</v>
+        <v>1.052797758392512</v>
       </c>
       <c r="K4">
-        <v>1.065547782062059</v>
+        <v>1.069038088144477</v>
       </c>
       <c r="L4">
-        <v>1.063801255030026</v>
+        <v>1.056764937511748</v>
       </c>
       <c r="M4">
-        <v>1.07547559803923</v>
+        <v>1.071532129679845</v>
       </c>
       <c r="N4">
-        <v>1.023381552353683</v>
+        <v>1.020989969713081</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054716875038016</v>
+        <v>1.035533865934142</v>
       </c>
       <c r="D5">
-        <v>1.063322733971634</v>
+        <v>1.060488140380571</v>
       </c>
       <c r="E5">
-        <v>1.06162244974679</v>
+        <v>1.048267412412205</v>
       </c>
       <c r="F5">
-        <v>1.073323083652609</v>
+        <v>1.063192561424617</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053753964213377</v>
+        <v>1.068213729564169</v>
       </c>
       <c r="J5">
-        <v>1.059065599928741</v>
+        <v>1.053638532469888</v>
       </c>
       <c r="K5">
-        <v>1.065689199039169</v>
+        <v>1.0696997958315</v>
       </c>
       <c r="L5">
-        <v>1.063992898769816</v>
+        <v>1.057605317636564</v>
       </c>
       <c r="M5">
-        <v>1.075666390548616</v>
+        <v>1.07237675565429</v>
       </c>
       <c r="N5">
-        <v>1.023445464841545</v>
+        <v>1.021279636775968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054764531246152</v>
+        <v>1.035751746393914</v>
       </c>
       <c r="D6">
-        <v>1.063355006149383</v>
+        <v>1.060635098464126</v>
       </c>
       <c r="E6">
-        <v>1.061663196642194</v>
+        <v>1.048445193961837</v>
       </c>
       <c r="F6">
-        <v>1.073363582673444</v>
+        <v>1.063370334272855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053767554958323</v>
+        <v>1.068289595591613</v>
       </c>
       <c r="J6">
-        <v>1.059097200741973</v>
+        <v>1.053779083632743</v>
       </c>
       <c r="K6">
-        <v>1.065712937003782</v>
+        <v>1.069810390550943</v>
       </c>
       <c r="L6">
-        <v>1.064025076484051</v>
+        <v>1.057745835002441</v>
       </c>
       <c r="M6">
-        <v>1.075698424578962</v>
+        <v>1.072517980358695</v>
       </c>
       <c r="N6">
-        <v>1.023456193217935</v>
+        <v>1.02132805282154</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054436868605886</v>
+        <v>1.034248393496255</v>
       </c>
       <c r="D7">
-        <v>1.063133113377985</v>
+        <v>1.059621339037571</v>
       </c>
       <c r="E7">
-        <v>1.061383064615555</v>
+        <v>1.047218954482882</v>
       </c>
       <c r="F7">
-        <v>1.073085150911933</v>
+        <v>1.062144145382527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053674010449506</v>
+        <v>1.067765312550659</v>
       </c>
       <c r="J7">
-        <v>1.05887988839362</v>
+        <v>1.052809034518375</v>
       </c>
       <c r="K7">
-        <v>1.065549672122146</v>
+        <v>1.069046964173825</v>
       </c>
       <c r="L7">
-        <v>1.063803815790085</v>
+        <v>1.05677620619529</v>
       </c>
       <c r="M7">
-        <v>1.075478147475837</v>
+        <v>1.071543455464114</v>
       </c>
       <c r="N7">
-        <v>1.023382406543648</v>
+        <v>1.020993855094093</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053068053610719</v>
+        <v>1.027831868826357</v>
       </c>
       <c r="D8">
-        <v>1.062206065333576</v>
+        <v>1.055300947426377</v>
       </c>
       <c r="E8">
-        <v>1.060213443931006</v>
+        <v>1.041996515887655</v>
       </c>
       <c r="F8">
-        <v>1.071922534315543</v>
+        <v>1.056921765072989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053280721479436</v>
+        <v>1.065507362598175</v>
       </c>
       <c r="J8">
-        <v>1.057971084612779</v>
+        <v>1.048662419028794</v>
       </c>
       <c r="K8">
-        <v>1.064866306899378</v>
+        <v>1.065780525486678</v>
       </c>
       <c r="L8">
-        <v>1.062878971243229</v>
+        <v>1.052636149908861</v>
       </c>
       <c r="M8">
-        <v>1.074557305388998</v>
+        <v>1.067382185296966</v>
       </c>
       <c r="N8">
-        <v>1.023073585569136</v>
+        <v>1.019564262206079</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050658923865025</v>
+        <v>1.015982759285682</v>
       </c>
       <c r="D9">
-        <v>1.060574181427516</v>
+        <v>1.047352953239698</v>
       </c>
       <c r="E9">
-        <v>1.058157334323927</v>
+        <v>1.032399730474727</v>
       </c>
       <c r="F9">
-        <v>1.069878389780482</v>
+        <v>1.047325318226794</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052579102438478</v>
+        <v>1.061263200124916</v>
       </c>
       <c r="J9">
-        <v>1.056367913109092</v>
+        <v>1.040983480218509</v>
       </c>
       <c r="K9">
-        <v>1.063658625227009</v>
+        <v>1.05972179371349</v>
       </c>
       <c r="L9">
-        <v>1.061249286692129</v>
+        <v>1.044988139899403</v>
       </c>
       <c r="M9">
-        <v>1.072934273102435</v>
+        <v>1.059694557158086</v>
       </c>
       <c r="N9">
-        <v>1.02252789866036</v>
+        <v>1.016913449772098</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049054807634413</v>
+        <v>1.007675688602125</v>
       </c>
       <c r="D10">
-        <v>1.05948747008068</v>
+        <v>1.041806830828857</v>
       </c>
       <c r="E10">
-        <v>1.056789954968985</v>
+        <v>1.025707566221509</v>
       </c>
       <c r="F10">
-        <v>1.068518743023322</v>
+        <v>1.040634397168554</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052105606579908</v>
+        <v>1.058240433854997</v>
       </c>
       <c r="J10">
-        <v>1.055297996944893</v>
+        <v>1.035588044732308</v>
       </c>
       <c r="K10">
-        <v>1.062851197489703</v>
+        <v>1.055460161217027</v>
       </c>
       <c r="L10">
-        <v>1.060162881721428</v>
+        <v>1.039627673882302</v>
       </c>
       <c r="M10">
-        <v>1.071852042315926</v>
+        <v>1.054306797632619</v>
       </c>
       <c r="N10">
-        <v>1.022163113857794</v>
+        <v>1.015049083641808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.048360678894503</v>
+        <v>1.003971447163644</v>
       </c>
       <c r="D11">
-        <v>1.059017214469353</v>
+        <v>1.039341205600918</v>
       </c>
       <c r="E11">
-        <v>1.05619867350257</v>
+        <v>1.022732868547836</v>
       </c>
       <c r="F11">
-        <v>1.067930753973172</v>
+        <v>1.037660695728516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051899219526611</v>
+        <v>1.056882060608469</v>
       </c>
       <c r="J11">
-        <v>1.054834449500794</v>
+        <v>1.033179937531908</v>
       </c>
       <c r="K11">
-        <v>1.062501035499141</v>
+        <v>1.053557478057249</v>
       </c>
       <c r="L11">
-        <v>1.05969247763122</v>
+        <v>1.037238443049238</v>
       </c>
       <c r="M11">
-        <v>1.071383385731499</v>
+        <v>1.051905696924403</v>
       </c>
       <c r="N11">
-        <v>1.022004926070335</v>
+        <v>1.014216648579889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.048102918539144</v>
+        <v>1.002578444847253</v>
       </c>
       <c r="D12">
-        <v>1.058842586491686</v>
+        <v>1.038415232304393</v>
       </c>
       <c r="E12">
-        <v>1.055979166761391</v>
+        <v>1.021615716715859</v>
       </c>
       <c r="F12">
-        <v>1.067712461958684</v>
+        <v>1.036544003347445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051822354239159</v>
+        <v>1.056369728728862</v>
       </c>
       <c r="J12">
-        <v>1.054662227802604</v>
+        <v>1.032274079721703</v>
       </c>
       <c r="K12">
-        <v>1.062370889332669</v>
+        <v>1.052841695102296</v>
       </c>
       <c r="L12">
-        <v>1.059517751755222</v>
+        <v>1.036340188942684</v>
       </c>
       <c r="M12">
-        <v>1.071209300105334</v>
+        <v>1.051003041104199</v>
       </c>
       <c r="N12">
-        <v>1.021946133271536</v>
+        <v>1.013903472047062</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.048158205840588</v>
+        <v>1.00287803801302</v>
       </c>
       <c r="D13">
-        <v>1.058880042689815</v>
+        <v>1.038614323512046</v>
       </c>
       <c r="E13">
-        <v>1.056026246188781</v>
+        <v>1.021855913471476</v>
       </c>
       <c r="F13">
-        <v>1.067759281192518</v>
+        <v>1.036784097149924</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051838851326622</v>
+        <v>1.056479982993692</v>
       </c>
       <c r="J13">
-        <v>1.054699171722156</v>
+        <v>1.032468914123613</v>
       </c>
       <c r="K13">
-        <v>1.062398809753393</v>
+        <v>1.05299564925832</v>
       </c>
       <c r="L13">
-        <v>1.059555230895377</v>
+        <v>1.036533364996354</v>
       </c>
       <c r="M13">
-        <v>1.071246642307812</v>
+        <v>1.051197160752106</v>
       </c>
       <c r="N13">
-        <v>1.021958746097259</v>
+        <v>1.013970832545404</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.048339370914522</v>
+        <v>1.003856655515984</v>
       </c>
       <c r="D14">
-        <v>1.05900277872315</v>
+        <v>1.03926487401508</v>
       </c>
       <c r="E14">
-        <v>1.056180526522598</v>
+        <v>1.022640777609576</v>
       </c>
       <c r="F14">
-        <v>1.067912707569674</v>
+        <v>1.037568640818245</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051892869976031</v>
+        <v>1.056839871659989</v>
       </c>
       <c r="J14">
-        <v>1.054820214404995</v>
+        <v>1.033105294720867</v>
       </c>
       <c r="K14">
-        <v>1.062490279212268</v>
+        <v>1.053498498216063</v>
       </c>
       <c r="L14">
-        <v>1.059678034667656</v>
+        <v>1.037164416492464</v>
       </c>
       <c r="M14">
-        <v>1.071368995870867</v>
+        <v>1.051831306279453</v>
       </c>
       <c r="N14">
-        <v>1.022000066947772</v>
+        <v>1.014190843534188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048451001973701</v>
+        <v>1.00445732015848</v>
       </c>
       <c r="D15">
-        <v>1.059078406561044</v>
+        <v>1.039664341815568</v>
       </c>
       <c r="E15">
-        <v>1.056275599858211</v>
+        <v>1.023122719042717</v>
       </c>
       <c r="F15">
-        <v>1.068007253669732</v>
+        <v>1.038050397297907</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051926125636232</v>
+        <v>1.057060570686955</v>
       </c>
       <c r="J15">
-        <v>1.054894787573486</v>
+        <v>1.033495863665099</v>
       </c>
       <c r="K15">
-        <v>1.062546625932829</v>
+        <v>1.053807108777625</v>
       </c>
       <c r="L15">
-        <v>1.059753698562258</v>
+        <v>1.037551781449772</v>
       </c>
       <c r="M15">
-        <v>1.07144438120838</v>
+        <v>1.052220579013295</v>
       </c>
       <c r="N15">
-        <v>1.02202552148305</v>
+        <v>1.014325867038516</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049100884471746</v>
+        <v>1.007919186437624</v>
       </c>
       <c r="D16">
-        <v>1.059518685767787</v>
+        <v>1.041969073710116</v>
       </c>
       <c r="E16">
-        <v>1.0568292133645</v>
+        <v>1.025903310988207</v>
       </c>
       <c r="F16">
-        <v>1.06855778174964</v>
+        <v>1.040830087179083</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052119275185679</v>
+        <v>1.05832951372248</v>
       </c>
       <c r="J16">
-        <v>1.055328755488405</v>
+        <v>1.035746300147838</v>
       </c>
       <c r="K16">
-        <v>1.062874425268051</v>
+        <v>1.055585191950128</v>
       </c>
       <c r="L16">
-        <v>1.060194101295788</v>
+        <v>1.039784757809097</v>
       </c>
       <c r="M16">
-        <v>1.071883144664322</v>
+        <v>1.054464669485536</v>
       </c>
       <c r="N16">
-        <v>1.022173607363187</v>
+        <v>1.015103783431552</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049508663024782</v>
+        <v>1.010061352600062</v>
       </c>
       <c r="D17">
-        <v>1.059794941789885</v>
+        <v>1.04339726474792</v>
       </c>
       <c r="E17">
-        <v>1.057176696068565</v>
+        <v>1.027626453446993</v>
       </c>
       <c r="F17">
-        <v>1.068903314213207</v>
+        <v>1.042552800312393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052240068914942</v>
+        <v>1.059112007576734</v>
       </c>
       <c r="J17">
-        <v>1.055600901069424</v>
+        <v>1.037138303979978</v>
       </c>
       <c r="K17">
-        <v>1.063079900990211</v>
+        <v>1.056684888384687</v>
       </c>
       <c r="L17">
-        <v>1.060470359173471</v>
+        <v>1.041166830286081</v>
       </c>
       <c r="M17">
-        <v>1.072158358327008</v>
+        <v>1.055853709877959</v>
       </c>
       <c r="N17">
-        <v>1.022266435389183</v>
+        <v>1.015584883178834</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049746558126138</v>
+        <v>1.01130056571745</v>
       </c>
       <c r="D18">
-        <v>1.059956105885652</v>
+        <v>1.044224153389097</v>
       </c>
       <c r="E18">
-        <v>1.057379454250233</v>
+        <v>1.028624155848398</v>
       </c>
       <c r="F18">
-        <v>1.069104929452725</v>
+        <v>1.043550294981524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052310394584151</v>
+        <v>1.059563671321323</v>
       </c>
       <c r="J18">
-        <v>1.055759613215739</v>
+        <v>1.037943345723935</v>
       </c>
       <c r="K18">
-        <v>1.063199699304162</v>
+        <v>1.057320817633646</v>
       </c>
       <c r="L18">
-        <v>1.060631497259366</v>
+        <v>1.041966437304222</v>
       </c>
       <c r="M18">
-        <v>1.072318881545981</v>
+        <v>1.056657375089348</v>
       </c>
       <c r="N18">
-        <v>1.022320557852292</v>
+        <v>1.015863087556338</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049827681794929</v>
+        <v>1.01172139069599</v>
       </c>
       <c r="D19">
-        <v>1.060011063497774</v>
+        <v>1.044505072261134</v>
       </c>
       <c r="E19">
-        <v>1.057448602651096</v>
+        <v>1.028963114404273</v>
       </c>
       <c r="F19">
-        <v>1.069173687218835</v>
+        <v>1.043889189353472</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052334351541917</v>
+        <v>1.0597168808079</v>
       </c>
       <c r="J19">
-        <v>1.055813725569614</v>
+        <v>1.038216692469596</v>
       </c>
       <c r="K19">
-        <v>1.063240538555729</v>
+        <v>1.057536731663502</v>
       </c>
       <c r="L19">
-        <v>1.060686441423</v>
+        <v>1.042237990782139</v>
       </c>
       <c r="M19">
-        <v>1.072373615068422</v>
+        <v>1.056930310844079</v>
       </c>
       <c r="N19">
-        <v>1.022339008379554</v>
+        <v>1.01595754444475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049464907612672</v>
+        <v>1.009832588150916</v>
       </c>
       <c r="D20">
-        <v>1.05976529916303</v>
+        <v>1.043244673078767</v>
       </c>
       <c r="E20">
-        <v>1.057139406450581</v>
+        <v>1.027442344244706</v>
       </c>
       <c r="F20">
-        <v>1.0688662343949</v>
+        <v>1.042368732615093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052227122465786</v>
+        <v>1.059028547226898</v>
       </c>
       <c r="J20">
-        <v>1.05557170508545</v>
+        <v>1.036989671955297</v>
       </c>
       <c r="K20">
-        <v>1.063057860783255</v>
+        <v>1.05656747373958</v>
       </c>
       <c r="L20">
-        <v>1.060440719153459</v>
+        <v>1.041019226549232</v>
       </c>
       <c r="M20">
-        <v>1.072128830939571</v>
+        <v>1.055705359074249</v>
       </c>
       <c r="N20">
-        <v>1.022256478151339</v>
+        <v>1.01553351667157</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.048286020382441</v>
+        <v>1.003568956789467</v>
       </c>
       <c r="D21">
-        <v>1.058966634744006</v>
+        <v>1.039073586924277</v>
       </c>
       <c r="E21">
-        <v>1.056135091447719</v>
+        <v>1.022409997434691</v>
       </c>
       <c r="F21">
-        <v>1.06786752418941</v>
+        <v>1.037337952369799</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051876968456765</v>
+        <v>1.056734110769125</v>
       </c>
       <c r="J21">
-        <v>1.054784571438996</v>
+        <v>1.03291821554764</v>
       </c>
       <c r="K21">
-        <v>1.062463345949914</v>
+        <v>1.053350674876198</v>
       </c>
       <c r="L21">
-        <v>1.059641871925165</v>
+        <v>1.03697888999554</v>
       </c>
       <c r="M21">
-        <v>1.071332965946885</v>
+        <v>1.051644868337695</v>
       </c>
       <c r="N21">
-        <v>1.021987899945912</v>
+        <v>1.014126167091116</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047545212102327</v>
+        <v>0.9995313938804231</v>
       </c>
       <c r="D22">
-        <v>1.058464748842845</v>
+        <v>1.036392176069419</v>
       </c>
       <c r="E22">
-        <v>1.055504342284779</v>
+        <v>1.019174918632584</v>
       </c>
       <c r="F22">
-        <v>1.067240251489807</v>
+        <v>1.03410438756802</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051655632967598</v>
+        <v>1.055246359059737</v>
       </c>
       <c r="J22">
-        <v>1.054289440782927</v>
+        <v>1.030292168193479</v>
       </c>
       <c r="K22">
-        <v>1.06208908602624</v>
+        <v>1.051275600974013</v>
       </c>
       <c r="L22">
-        <v>1.059139623516462</v>
+        <v>1.034375852617013</v>
       </c>
       <c r="M22">
-        <v>1.070832541451076</v>
+        <v>1.049029210006301</v>
       </c>
       <c r="N22">
-        <v>1.021818832899541</v>
+        <v>1.013218216485515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047937890129659</v>
+        <v>1.001681546121257</v>
       </c>
       <c r="D23">
-        <v>1.058730782434114</v>
+        <v>1.037819399638578</v>
       </c>
       <c r="E23">
-        <v>1.055838647359283</v>
+        <v>1.020896861049561</v>
       </c>
       <c r="F23">
-        <v>1.06757271807162</v>
+        <v>1.035825469800734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051773078788452</v>
+        <v>1.056039442514921</v>
       </c>
       <c r="J23">
-        <v>1.054551940393175</v>
+        <v>1.031690763937164</v>
       </c>
       <c r="K23">
-        <v>1.06228753209356</v>
+        <v>1.052380766883078</v>
       </c>
       <c r="L23">
-        <v>1.059405872915259</v>
+        <v>1.035761912771333</v>
       </c>
       <c r="M23">
-        <v>1.071097828755046</v>
+        <v>1.050421950512197</v>
       </c>
       <c r="N23">
-        <v>1.021908477524491</v>
+        <v>1.013701796054593</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049484678661557</v>
+        <v>1.009935988643575</v>
       </c>
       <c r="D24">
-        <v>1.059778693301796</v>
+        <v>1.043313641658324</v>
       </c>
       <c r="E24">
-        <v>1.057156255784736</v>
+        <v>1.027525558019101</v>
       </c>
       <c r="F24">
-        <v>1.068882988946323</v>
+        <v>1.042451927504822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052232972814497</v>
+        <v>1.059066274026042</v>
       </c>
       <c r="J24">
-        <v>1.055584897573491</v>
+        <v>1.037056853620528</v>
       </c>
       <c r="K24">
-        <v>1.063067819965408</v>
+        <v>1.056620545345198</v>
       </c>
       <c r="L24">
-        <v>1.060454112197928</v>
+        <v>1.041085942471285</v>
       </c>
       <c r="M24">
-        <v>1.072142173108155</v>
+        <v>1.05577241258358</v>
       </c>
       <c r="N24">
-        <v>1.022260977468217</v>
+        <v>1.015556734427773</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051281396034399</v>
+        <v>1.019114556097625</v>
       </c>
       <c r="D25">
-        <v>1.060995854367117</v>
+        <v>1.04944959459553</v>
       </c>
       <c r="E25">
-        <v>1.058688299913779</v>
+        <v>1.034930337612042</v>
       </c>
       <c r="F25">
-        <v>1.070406305823081</v>
+        <v>1.049855726228596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052761503284734</v>
+        <v>1.062393337951683</v>
       </c>
       <c r="J25">
-        <v>1.056782574153441</v>
+        <v>1.043015328998493</v>
       </c>
       <c r="K25">
-        <v>1.063971250093409</v>
+        <v>1.061325875097042</v>
       </c>
       <c r="L25">
-        <v>1.061670593442424</v>
+        <v>1.047009567493915</v>
       </c>
       <c r="M25">
-        <v>1.073353906657804</v>
+        <v>1.061726431527445</v>
       </c>
       <c r="N25">
-        <v>1.02266914826192</v>
+        <v>1.017615205186268</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02614466418837</v>
+        <v>0.9765999625238762</v>
       </c>
       <c r="D2">
-        <v>1.054166742689139</v>
+        <v>1.042013011606907</v>
       </c>
       <c r="E2">
-        <v>1.040626305782894</v>
+        <v>0.9862918395159835</v>
       </c>
       <c r="F2">
-        <v>1.055551556933869</v>
+        <v>1.033935054206826</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064908577763377</v>
+        <v>1.057844840188433</v>
       </c>
       <c r="J2">
-        <v>1.047570554572883</v>
+        <v>0.9995038237411464</v>
       </c>
       <c r="K2">
-        <v>1.064919707771303</v>
+        <v>1.052916496807913</v>
       </c>
       <c r="L2">
-        <v>1.051547243652998</v>
+        <v>0.9979455130469711</v>
       </c>
       <c r="M2">
-        <v>1.066287644925639</v>
+        <v>1.044941028446664</v>
       </c>
       <c r="N2">
-        <v>1.019187586207444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003880128673202</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044140190977723</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048486756423703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031094872266981</v>
+        <v>0.9806972195071203</v>
       </c>
       <c r="D3">
-        <v>1.057496658162345</v>
+        <v>1.044186415515884</v>
       </c>
       <c r="E3">
-        <v>1.04465000892676</v>
+        <v>0.9895065740719803</v>
       </c>
       <c r="F3">
-        <v>1.059575249524341</v>
+        <v>1.036572795539366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066659555091731</v>
+        <v>1.058463458795877</v>
       </c>
       <c r="J3">
-        <v>1.050772315304358</v>
+        <v>1.00172829641614</v>
       </c>
       <c r="K3">
-        <v>1.067443146259799</v>
+        <v>1.05428349538603</v>
       </c>
       <c r="L3">
-        <v>1.054741764097358</v>
+        <v>1.000275504637326</v>
       </c>
       <c r="M3">
-        <v>1.069498640593923</v>
+        <v>1.046758166093768</v>
       </c>
       <c r="N3">
-        <v>1.020291867245717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.004633801691808</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045578324961509</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049450686847117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034230923568367</v>
+        <v>0.9832985920910893</v>
       </c>
       <c r="D4">
-        <v>1.059609561773787</v>
+        <v>1.045561355279587</v>
       </c>
       <c r="E4">
-        <v>1.047204710761392</v>
+        <v>0.9915542366108742</v>
       </c>
       <c r="F4">
-        <v>1.0621299021273</v>
+        <v>1.038246684526844</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067759208947485</v>
+        <v>1.058838630330981</v>
       </c>
       <c r="J4">
-        <v>1.052797758392512</v>
+        <v>1.003139390041561</v>
       </c>
       <c r="K4">
-        <v>1.069038088144477</v>
+        <v>1.055139316677254</v>
       </c>
       <c r="L4">
-        <v>1.056764937511748</v>
+        <v>1.001755674810074</v>
       </c>
       <c r="M4">
-        <v>1.071532129679845</v>
+        <v>1.047904420463169</v>
       </c>
       <c r="N4">
-        <v>1.020989969713081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005111656276269</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046485501548165</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050056692876214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035533865934142</v>
+        <v>0.9843800431976329</v>
       </c>
       <c r="D5">
-        <v>1.060488140380571</v>
+        <v>1.046132980585233</v>
       </c>
       <c r="E5">
-        <v>1.048267412412205</v>
+        <v>0.9924070713576473</v>
       </c>
       <c r="F5">
-        <v>1.063192561424617</v>
+        <v>1.0389409988529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068213729564169</v>
+        <v>1.058990897269597</v>
       </c>
       <c r="J5">
-        <v>1.053638532469888</v>
+        <v>1.003725412663122</v>
       </c>
       <c r="K5">
-        <v>1.0696997958315</v>
+        <v>1.055493306034134</v>
       </c>
       <c r="L5">
-        <v>1.057605317636564</v>
+        <v>1.002371083333839</v>
       </c>
       <c r="M5">
-        <v>1.07237675565429</v>
+        <v>1.048377699899789</v>
       </c>
       <c r="N5">
-        <v>1.021279636775968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.005310264760346</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046860067317806</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050314058382805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035751746393914</v>
+        <v>0.9845601708860353</v>
       </c>
       <c r="D6">
-        <v>1.060635098464126</v>
+        <v>1.046229711176367</v>
       </c>
       <c r="E6">
-        <v>1.048445193961837</v>
+        <v>0.9925492489146344</v>
       </c>
       <c r="F6">
-        <v>1.063370334272855</v>
+        <v>1.039055061768255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068289595591613</v>
+        <v>1.059016717213286</v>
       </c>
       <c r="J6">
-        <v>1.053779083632743</v>
+        <v>1.003822660280172</v>
       </c>
       <c r="K6">
-        <v>1.069810390550943</v>
+        <v>1.055553517292701</v>
       </c>
       <c r="L6">
-        <v>1.057745835002441</v>
+        <v>1.002473468333276</v>
       </c>
       <c r="M6">
-        <v>1.072517980358695</v>
+        <v>1.048454715815033</v>
       </c>
       <c r="N6">
-        <v>1.02132805282154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.005343485198183</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046921019716783</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050365256375146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034248393496255</v>
+        <v>0.9833108643472017</v>
       </c>
       <c r="D7">
-        <v>1.059621339037571</v>
+        <v>1.045571850097857</v>
       </c>
       <c r="E7">
-        <v>1.047218954482882</v>
+        <v>0.991564012557397</v>
       </c>
       <c r="F7">
-        <v>1.062144145382527</v>
+        <v>1.03825007160999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067765312550659</v>
+        <v>1.058842127130407</v>
       </c>
       <c r="J7">
-        <v>1.052809034518375</v>
+        <v>1.003145082685411</v>
       </c>
       <c r="K7">
-        <v>1.069046964173825</v>
+        <v>1.055146870498586</v>
       </c>
       <c r="L7">
-        <v>1.05677620619529</v>
+        <v>1.001762294159124</v>
       </c>
       <c r="M7">
-        <v>1.071543455464114</v>
+        <v>1.047904916223063</v>
       </c>
       <c r="N7">
-        <v>1.020993855094093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.00511431091914</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046485893905658</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050081870626123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027831868826357</v>
+        <v>0.9779919486758463</v>
       </c>
       <c r="D8">
-        <v>1.055300947426377</v>
+        <v>1.042756044473959</v>
       </c>
       <c r="E8">
-        <v>1.041996515887655</v>
+        <v>0.9873827009137092</v>
       </c>
       <c r="F8">
-        <v>1.056921765072989</v>
+        <v>1.034824364623159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065507362598175</v>
+        <v>1.058060125519293</v>
       </c>
       <c r="J8">
-        <v>1.048662419028794</v>
+        <v>1.000258406501693</v>
       </c>
       <c r="K8">
-        <v>1.065780525486678</v>
+        <v>1.053386404537829</v>
       </c>
       <c r="L8">
-        <v>1.052636149908861</v>
+        <v>0.9987363381685429</v>
       </c>
       <c r="M8">
-        <v>1.067382185296966</v>
+        <v>1.045552407666532</v>
       </c>
       <c r="N8">
-        <v>1.019564262206079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.004136786823337</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044624054050785</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048841611132944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015982759285682</v>
+        <v>0.9682231734968906</v>
       </c>
       <c r="D9">
-        <v>1.047352953239698</v>
+        <v>1.037546150880053</v>
       </c>
       <c r="E9">
-        <v>1.032399730474727</v>
+        <v>0.9797576589502667</v>
       </c>
       <c r="F9">
-        <v>1.047325318226794</v>
+        <v>1.028540585993325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061263200124916</v>
+        <v>1.056486385426862</v>
       </c>
       <c r="J9">
-        <v>1.040983480218509</v>
+        <v>0.9949502079535413</v>
       </c>
       <c r="K9">
-        <v>1.05972179371349</v>
+        <v>1.050058084332252</v>
       </c>
       <c r="L9">
-        <v>1.044988139899403</v>
+        <v>0.9931879197936305</v>
       </c>
       <c r="M9">
-        <v>1.059694557158086</v>
+        <v>1.041186981881522</v>
       </c>
       <c r="N9">
-        <v>1.016913449772098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.002336271182507</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041169123664016</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046485197997598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007675688602125</v>
+        <v>0.9614123710350642</v>
       </c>
       <c r="D10">
-        <v>1.041806830828857</v>
+        <v>1.033917874555399</v>
       </c>
       <c r="E10">
-        <v>1.025707566221509</v>
+        <v>0.9744832421670224</v>
       </c>
       <c r="F10">
-        <v>1.040634397168554</v>
+        <v>1.024220392194786</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058240433854997</v>
+        <v>1.05531219019048</v>
       </c>
       <c r="J10">
-        <v>1.035588044732308</v>
+        <v>0.9912452748847089</v>
       </c>
       <c r="K10">
-        <v>1.055460161217027</v>
+        <v>1.047700594764574</v>
       </c>
       <c r="L10">
-        <v>1.039627673882302</v>
+        <v>0.9893290169466673</v>
       </c>
       <c r="M10">
-        <v>1.054306797632619</v>
+        <v>1.038165689674645</v>
       </c>
       <c r="N10">
-        <v>1.015049083641808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001082868872049</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038829388182631</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044834945456287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003971447163644</v>
+        <v>0.9583319551488896</v>
       </c>
       <c r="D11">
-        <v>1.039341205600918</v>
+        <v>1.032397854073256</v>
       </c>
       <c r="E11">
-        <v>1.022732868547836</v>
+        <v>0.9721184998632196</v>
       </c>
       <c r="F11">
-        <v>1.037660695728516</v>
+        <v>1.022664990377603</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056882060608469</v>
+        <v>1.054818650934182</v>
       </c>
       <c r="J11">
-        <v>1.033179937531908</v>
+        <v>0.9895471269989761</v>
       </c>
       <c r="K11">
-        <v>1.053557478057249</v>
+        <v>1.046733607971582</v>
       </c>
       <c r="L11">
-        <v>1.037238443049238</v>
+        <v>0.9875860972946284</v>
       </c>
       <c r="M11">
-        <v>1.051905696924403</v>
+        <v>1.037171772278021</v>
       </c>
       <c r="N11">
-        <v>1.014216648579889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000543622182431</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038479023311795</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04418369649537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002578444847253</v>
+        <v>0.9570929946209427</v>
       </c>
       <c r="D12">
-        <v>1.038415232304393</v>
+        <v>1.031787932576421</v>
       </c>
       <c r="E12">
-        <v>1.021615716715859</v>
+        <v>0.9711682439699055</v>
       </c>
       <c r="F12">
-        <v>1.036544003347445</v>
+        <v>1.022117855214153</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056369728728862</v>
+        <v>1.054610755396145</v>
       </c>
       <c r="J12">
-        <v>1.032274079721703</v>
+        <v>0.9888311966474436</v>
       </c>
       <c r="K12">
-        <v>1.052841695102296</v>
+        <v>1.046330455170741</v>
       </c>
       <c r="L12">
-        <v>1.036340188942684</v>
+        <v>0.986869475608988</v>
       </c>
       <c r="M12">
-        <v>1.051003041104199</v>
+        <v>1.036833235227086</v>
       </c>
       <c r="N12">
-        <v>1.013903472047062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00033059868651</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038537715463626</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043898660844596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00287803801302</v>
+        <v>0.9571950591489951</v>
       </c>
       <c r="D13">
-        <v>1.038614323512046</v>
+        <v>1.031851168376278</v>
       </c>
       <c r="E13">
-        <v>1.021855913471476</v>
+        <v>0.9712453081739538</v>
       </c>
       <c r="F13">
-        <v>1.036784097149924</v>
+        <v>1.02232448656358</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056479982993692</v>
+        <v>1.054621227800348</v>
       </c>
       <c r="J13">
-        <v>1.032468914123613</v>
+        <v>0.9888286444486262</v>
       </c>
       <c r="K13">
-        <v>1.05299564925832</v>
+        <v>1.046350500391635</v>
       </c>
       <c r="L13">
-        <v>1.036533364996354</v>
+        <v>0.9868989790154938</v>
       </c>
       <c r="M13">
-        <v>1.051197160752106</v>
+        <v>1.036993486782425</v>
       </c>
       <c r="N13">
-        <v>1.013970832545404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000357017180418</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03894118471916</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043910369884071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003856655515984</v>
+        <v>0.9578706324333571</v>
       </c>
       <c r="D14">
-        <v>1.03926487401508</v>
+        <v>1.032195696305643</v>
       </c>
       <c r="E14">
-        <v>1.022640777609576</v>
+        <v>0.9717615791219276</v>
       </c>
       <c r="F14">
-        <v>1.037568640818245</v>
+        <v>1.02280245395949</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056839871659989</v>
+        <v>1.054724722469415</v>
       </c>
       <c r="J14">
-        <v>1.033105294720867</v>
+        <v>0.989145830215626</v>
       </c>
       <c r="K14">
-        <v>1.053498498216063</v>
+        <v>1.046551167640026</v>
       </c>
       <c r="L14">
-        <v>1.037164416492464</v>
+        <v>0.9872541274571116</v>
       </c>
       <c r="M14">
-        <v>1.051831306279453</v>
+        <v>1.037323213401625</v>
       </c>
       <c r="N14">
-        <v>1.014190843534188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.000482686760812</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039375200186939</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044053652876597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00445732015848</v>
+        <v>0.9583294381897525</v>
       </c>
       <c r="D15">
-        <v>1.039664341815568</v>
+        <v>1.032435150997194</v>
       </c>
       <c r="E15">
-        <v>1.023122719042717</v>
+        <v>0.972113644723165</v>
       </c>
       <c r="F15">
-        <v>1.038050397297907</v>
+        <v>1.023098542327496</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057060570686955</v>
+        <v>1.054802019965161</v>
       </c>
       <c r="J15">
-        <v>1.033495863665099</v>
+        <v>0.9893824216196676</v>
       </c>
       <c r="K15">
-        <v>1.053807108777625</v>
+        <v>1.046701578091846</v>
       </c>
       <c r="L15">
-        <v>1.037551781449772</v>
+        <v>0.9875063649160772</v>
       </c>
       <c r="M15">
-        <v>1.052220579013295</v>
+        <v>1.037528031961489</v>
       </c>
       <c r="N15">
-        <v>1.014325867038516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.000566952853339</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039574634495063</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044165798297362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007919186437624</v>
+        <v>0.9612081280079525</v>
       </c>
       <c r="D16">
-        <v>1.041969073710116</v>
+        <v>1.033995686501393</v>
       </c>
       <c r="E16">
-        <v>1.025903310988207</v>
+        <v>0.9743350556569419</v>
       </c>
       <c r="F16">
-        <v>1.040830087179083</v>
+        <v>1.024950889466105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05832951372248</v>
+        <v>1.055333034574621</v>
       </c>
       <c r="J16">
-        <v>1.035746300147838</v>
+        <v>0.990968070840384</v>
       </c>
       <c r="K16">
-        <v>1.055585191950128</v>
+        <v>1.047742160328318</v>
       </c>
       <c r="L16">
-        <v>1.039784757809097</v>
+        <v>0.9891456004334837</v>
       </c>
       <c r="M16">
-        <v>1.054464669485536</v>
+        <v>1.038848402609408</v>
       </c>
       <c r="N16">
-        <v>1.015103783431552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.001098044769318</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04057952976089</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044904640306375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010061352600062</v>
+        <v>0.9630641428137392</v>
       </c>
       <c r="D17">
-        <v>1.04339726474792</v>
+        <v>1.035011136636638</v>
       </c>
       <c r="E17">
-        <v>1.027626453446993</v>
+        <v>0.9757723253755693</v>
       </c>
       <c r="F17">
-        <v>1.042552800312393</v>
+        <v>1.026116245390213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059112007576734</v>
+        <v>1.055681748276956</v>
       </c>
       <c r="J17">
-        <v>1.037138303979978</v>
+        <v>0.9920196348451925</v>
       </c>
       <c r="K17">
-        <v>1.056684888384687</v>
+        <v>1.048431931877542</v>
       </c>
       <c r="L17">
-        <v>1.041166830286081</v>
+        <v>0.990218920941522</v>
       </c>
       <c r="M17">
-        <v>1.055853709877959</v>
+        <v>1.039681349893864</v>
       </c>
       <c r="N17">
-        <v>1.015584883178834</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00143995885888</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041108885687479</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045394878766313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01130056571745</v>
+        <v>0.9642153431922061</v>
       </c>
       <c r="D18">
-        <v>1.044224153389097</v>
+        <v>1.035629253125493</v>
       </c>
       <c r="E18">
-        <v>1.028624155848398</v>
+        <v>0.9766653730227313</v>
       </c>
       <c r="F18">
-        <v>1.043550294981524</v>
+        <v>1.026753678133688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059563671321323</v>
+        <v>1.055897189030112</v>
       </c>
       <c r="J18">
-        <v>1.037943345723935</v>
+        <v>0.9927019137525828</v>
       </c>
       <c r="K18">
-        <v>1.057320817633646</v>
+        <v>1.048860069769124</v>
       </c>
       <c r="L18">
-        <v>1.041966437304222</v>
+        <v>0.9908994273286288</v>
       </c>
       <c r="M18">
-        <v>1.056657375089348</v>
+        <v>1.040126052708384</v>
       </c>
       <c r="N18">
-        <v>1.015863087556338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.001647604729388</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041222824725285</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045686083603597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01172139069599</v>
+        <v>0.9646637524028939</v>
       </c>
       <c r="D19">
-        <v>1.044505072261134</v>
+        <v>1.035819618564969</v>
       </c>
       <c r="E19">
-        <v>1.028963114404273</v>
+        <v>0.9770101910278317</v>
       </c>
       <c r="F19">
-        <v>1.043889189353472</v>
+        <v>1.026802637861977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0597168808079</v>
+        <v>1.055960140098431</v>
       </c>
       <c r="J19">
-        <v>1.038216692469596</v>
+        <v>0.9929886686964131</v>
       </c>
       <c r="K19">
-        <v>1.057536731663502</v>
+        <v>1.048986046225356</v>
       </c>
       <c r="L19">
-        <v>1.042237990782139</v>
+        <v>0.9911711728832167</v>
       </c>
       <c r="M19">
-        <v>1.056930310844079</v>
+        <v>1.040112071149144</v>
       </c>
       <c r="N19">
-        <v>1.01595754444475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.001716915153992</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040886477442624</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04578146524701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009832588150916</v>
+        <v>0.9631681553596763</v>
       </c>
       <c r="D20">
-        <v>1.043244673078767</v>
+        <v>1.034855596846566</v>
       </c>
       <c r="E20">
-        <v>1.027442344244706</v>
+        <v>0.9758400274285959</v>
       </c>
       <c r="F20">
-        <v>1.042368732615093</v>
+        <v>1.025314909283139</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059028547226898</v>
+        <v>1.055620844671743</v>
       </c>
       <c r="J20">
-        <v>1.036989671955297</v>
+        <v>0.9921966224181407</v>
       </c>
       <c r="K20">
-        <v>1.05656747373958</v>
+        <v>1.048312043589615</v>
       </c>
       <c r="L20">
-        <v>1.041019226549232</v>
+        <v>0.9903214339875265</v>
       </c>
       <c r="M20">
-        <v>1.055705359074249</v>
+        <v>1.038926767605044</v>
       </c>
       <c r="N20">
-        <v>1.01553351667157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001407115936848</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039421156275145</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045308796858958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003568956789467</v>
+        <v>0.9580490433250751</v>
       </c>
       <c r="D21">
-        <v>1.039073586924277</v>
+        <v>1.032092850592307</v>
       </c>
       <c r="E21">
-        <v>1.022409997434691</v>
+        <v>0.9718878611447841</v>
       </c>
       <c r="F21">
-        <v>1.037337952369799</v>
+        <v>1.021985688801651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056734110769125</v>
+        <v>1.054693588514466</v>
       </c>
       <c r="J21">
-        <v>1.03291821554764</v>
+        <v>0.989411808310886</v>
       </c>
       <c r="K21">
-        <v>1.053350674876198</v>
+        <v>1.046490696594982</v>
       </c>
       <c r="L21">
-        <v>1.03697888999554</v>
+        <v>0.9874221439316525</v>
       </c>
       <c r="M21">
-        <v>1.051644868337695</v>
+        <v>1.036562173005126</v>
       </c>
       <c r="N21">
-        <v>1.014126167091116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000458239883549</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037508891604381</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.044024251497211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9995313938804231</v>
+        <v>0.9547639587540839</v>
       </c>
       <c r="D22">
-        <v>1.036392176069419</v>
+        <v>1.030330484792794</v>
       </c>
       <c r="E22">
-        <v>1.019174918632584</v>
+        <v>0.9693618567823853</v>
       </c>
       <c r="F22">
-        <v>1.03410438756802</v>
+        <v>1.019892438402568</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055246359059737</v>
+        <v>1.054088347000972</v>
       </c>
       <c r="J22">
-        <v>1.030292168193479</v>
+        <v>0.9876265058112415</v>
       </c>
       <c r="K22">
-        <v>1.051275600974013</v>
+        <v>1.04532411920058</v>
       </c>
       <c r="L22">
-        <v>1.034375852617013</v>
+        <v>0.9855657151837093</v>
       </c>
       <c r="M22">
-        <v>1.049029210006301</v>
+        <v>1.035079860744069</v>
       </c>
       <c r="N22">
-        <v>1.013218216485515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9998508510082371</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036335734974435</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043186107379621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001681546121257</v>
+        <v>0.9565162136610871</v>
       </c>
       <c r="D23">
-        <v>1.037819399638578</v>
+        <v>1.031271246099642</v>
       </c>
       <c r="E23">
-        <v>1.020896861049561</v>
+        <v>0.9707083064975098</v>
       </c>
       <c r="F23">
-        <v>1.035825469800734</v>
+        <v>1.021017291592768</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056039442514921</v>
+        <v>1.054413375249777</v>
       </c>
       <c r="J23">
-        <v>1.031690763937164</v>
+        <v>0.988580336299423</v>
       </c>
       <c r="K23">
-        <v>1.052380766883078</v>
+        <v>1.045948588733588</v>
       </c>
       <c r="L23">
-        <v>1.035761912771333</v>
+        <v>0.9865563941740549</v>
       </c>
       <c r="M23">
-        <v>1.050421950512197</v>
+        <v>1.035880135803377</v>
       </c>
       <c r="N23">
-        <v>1.013701796054593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000174542360545</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036969102431763</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.043618105816554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009935988643575</v>
+        <v>0.9632580919513251</v>
       </c>
       <c r="D24">
-        <v>1.043313641658324</v>
+        <v>1.034888011557731</v>
       </c>
       <c r="E24">
-        <v>1.027525558019101</v>
+        <v>0.9759082301419445</v>
       </c>
       <c r="F24">
-        <v>1.042451927504822</v>
+        <v>1.025339090280152</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059066274026042</v>
+        <v>1.055629188400657</v>
       </c>
       <c r="J24">
-        <v>1.037056853620528</v>
+        <v>0.9922477222734255</v>
       </c>
       <c r="K24">
-        <v>1.056620545345198</v>
+        <v>1.048328955804291</v>
       </c>
       <c r="L24">
-        <v>1.041085942471285</v>
+        <v>0.9903720590722903</v>
       </c>
       <c r="M24">
-        <v>1.05577241258358</v>
+        <v>1.038935370453724</v>
       </c>
       <c r="N24">
-        <v>1.015556734427773</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00142013111589</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039387123635134</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045293691792064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019114556097625</v>
+        <v>0.9707937820887266</v>
       </c>
       <c r="D25">
-        <v>1.04944959459553</v>
+        <v>1.038922669492453</v>
       </c>
       <c r="E25">
-        <v>1.034930337612042</v>
+        <v>0.9817575807206058</v>
       </c>
       <c r="F25">
-        <v>1.049855726228596</v>
+        <v>1.030182378280541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062393337951683</v>
+        <v>1.056916488073792</v>
       </c>
       <c r="J25">
-        <v>1.043015328998493</v>
+        <v>0.99634567720061</v>
       </c>
       <c r="K25">
-        <v>1.061325875097042</v>
+        <v>1.050945380345041</v>
       </c>
       <c r="L25">
-        <v>1.047009567493915</v>
+        <v>0.9946458456343685</v>
       </c>
       <c r="M25">
-        <v>1.061726431527445</v>
+        <v>1.042329546803962</v>
       </c>
       <c r="N25">
-        <v>1.017615205186268</v>
+        <v>1.002811078992686</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042073385789751</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047140768235129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9765999625238762</v>
+        <v>0.9776491180473613</v>
       </c>
       <c r="D2">
-        <v>1.042013011606907</v>
+        <v>1.039235124345521</v>
       </c>
       <c r="E2">
-        <v>0.9862918395159835</v>
+        <v>0.9871810315356295</v>
       </c>
       <c r="F2">
-        <v>1.033935054206826</v>
+        <v>1.032783950122263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057844840188433</v>
+        <v>1.056433794900758</v>
       </c>
       <c r="J2">
-        <v>0.9995038237411464</v>
+        <v>1.000519529409089</v>
       </c>
       <c r="K2">
-        <v>1.052916496807913</v>
+        <v>1.050173629624896</v>
       </c>
       <c r="L2">
-        <v>0.9979455130469711</v>
+        <v>0.9988218917876509</v>
       </c>
       <c r="M2">
-        <v>1.044941028446664</v>
+        <v>1.043804692148348</v>
       </c>
       <c r="N2">
-        <v>1.003880128673202</v>
+        <v>1.007397410841386</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044140190977723</v>
+        <v>1.04324086094434</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048486756423703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04655602373761</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025215097295022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9806972195071203</v>
+        <v>0.9816483614620066</v>
       </c>
       <c r="D3">
-        <v>1.044186415515884</v>
+        <v>1.041188174551678</v>
       </c>
       <c r="E3">
-        <v>0.9895065740719803</v>
+        <v>0.9903139867997454</v>
       </c>
       <c r="F3">
-        <v>1.036572795539366</v>
+        <v>1.035242463080948</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058463458795877</v>
+        <v>1.056938974413748</v>
       </c>
       <c r="J3">
-        <v>1.00172829641614</v>
+        <v>1.002652127740347</v>
       </c>
       <c r="K3">
-        <v>1.05428349538603</v>
+        <v>1.051319832816676</v>
       </c>
       <c r="L3">
-        <v>1.000275504637326</v>
+        <v>1.001072320766505</v>
       </c>
       <c r="M3">
-        <v>1.046758166093768</v>
+        <v>1.045443425650383</v>
       </c>
       <c r="N3">
-        <v>1.004633801691808</v>
+        <v>1.007976230759581</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045578324961509</v>
+        <v>1.044537802576755</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049450686847117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04736356310358</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025449467712768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9832985920910893</v>
+        <v>0.9841889057284362</v>
       </c>
       <c r="D4">
-        <v>1.045561355279587</v>
+        <v>1.042425682759264</v>
       </c>
       <c r="E4">
-        <v>0.9915542366108742</v>
+        <v>0.9923107698789834</v>
       </c>
       <c r="F4">
-        <v>1.038246684526844</v>
+        <v>1.036805069340837</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058838630330981</v>
+        <v>1.057243226330278</v>
       </c>
       <c r="J4">
-        <v>1.003139390041561</v>
+        <v>1.004005894559256</v>
       </c>
       <c r="K4">
-        <v>1.055139316677254</v>
+        <v>1.052037673859791</v>
       </c>
       <c r="L4">
-        <v>1.001755674810074</v>
+        <v>1.002502891669117</v>
       </c>
       <c r="M4">
-        <v>1.047904420463169</v>
+        <v>1.046478690856865</v>
       </c>
       <c r="N4">
-        <v>1.005111656276269</v>
+        <v>1.008343442449112</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046485501548165</v>
+        <v>1.045357140560479</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050056692876214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047872093564698</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025592012740496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9843800431976329</v>
+        <v>0.9852459294763726</v>
       </c>
       <c r="D5">
-        <v>1.046132980585233</v>
+        <v>1.042941769502389</v>
       </c>
       <c r="E5">
-        <v>0.9924070713576473</v>
+        <v>0.9931431487801523</v>
       </c>
       <c r="F5">
-        <v>1.0389409988529</v>
+        <v>1.0374551233316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058990897269597</v>
+        <v>1.057366785165143</v>
       </c>
       <c r="J5">
-        <v>1.003725412663122</v>
+        <v>1.004568844715829</v>
       </c>
       <c r="K5">
-        <v>1.055493306034134</v>
+        <v>1.052335825090081</v>
       </c>
       <c r="L5">
-        <v>1.002371083333839</v>
+        <v>1.003098342924917</v>
       </c>
       <c r="M5">
-        <v>1.048377699899789</v>
+        <v>1.046907765423221</v>
       </c>
       <c r="N5">
-        <v>1.005310264760346</v>
+        <v>1.008496230405695</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046860067317806</v>
+        <v>1.045696721964382</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050314058382805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048090695575062</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025649551976889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9845601708860353</v>
+        <v>0.98542266704364</v>
       </c>
       <c r="D6">
-        <v>1.046229711176367</v>
+        <v>1.043030511832088</v>
       </c>
       <c r="E6">
-        <v>0.9925492489146344</v>
+        <v>0.993282490487033</v>
       </c>
       <c r="F6">
-        <v>1.039055061768255</v>
+        <v>1.037563569777983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059016717213286</v>
+        <v>1.057388463409528</v>
       </c>
       <c r="J6">
-        <v>1.003822660280172</v>
+        <v>1.004662906537272</v>
       </c>
       <c r="K6">
-        <v>1.055553517292701</v>
+        <v>1.052387981121613</v>
       </c>
       <c r="L6">
-        <v>1.002473468333276</v>
+        <v>1.003197967077661</v>
       </c>
       <c r="M6">
-        <v>1.048454715815033</v>
+        <v>1.046979152646437</v>
       </c>
       <c r="N6">
-        <v>1.005343485198183</v>
+        <v>1.008521930418211</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046921019716783</v>
+        <v>1.045753219759505</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050365256375146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048137073757024</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025658795207428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9833108643472017</v>
+        <v>0.9842137101663289</v>
       </c>
       <c r="D7">
-        <v>1.045571850097857</v>
+        <v>1.042440220928314</v>
       </c>
       <c r="E7">
-        <v>0.991564012557397</v>
+        <v>0.9923316560503725</v>
       </c>
       <c r="F7">
-        <v>1.03825007160999</v>
+        <v>1.036815979087482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058842127130407</v>
+        <v>1.057248774245519</v>
       </c>
       <c r="J7">
-        <v>1.003145082685411</v>
+        <v>1.004023794364313</v>
       </c>
       <c r="K7">
-        <v>1.055146870498586</v>
+        <v>1.052049214861955</v>
       </c>
       <c r="L7">
-        <v>1.001762294159124</v>
+        <v>1.002520487973696</v>
       </c>
       <c r="M7">
-        <v>1.047904916223063</v>
+        <v>1.046486620859619</v>
       </c>
       <c r="N7">
-        <v>1.00511431091914</v>
+        <v>1.008374940782391</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046485893905658</v>
+        <v>1.045363416584022</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050081870626123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047902104485624</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025592016696055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9779919486758463</v>
+        <v>0.9790439212962413</v>
       </c>
       <c r="D8">
-        <v>1.042756044473959</v>
+        <v>1.039911405053065</v>
       </c>
       <c r="E8">
-        <v>0.9873827009137092</v>
+        <v>0.9882762997032973</v>
       </c>
       <c r="F8">
-        <v>1.034824364623159</v>
+        <v>1.033628565082322</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058060125519293</v>
+        <v>1.056614692611483</v>
       </c>
       <c r="J8">
-        <v>1.000258406501693</v>
+        <v>1.001277985296524</v>
       </c>
       <c r="K8">
-        <v>1.053386404537829</v>
+        <v>1.050576585217462</v>
       </c>
       <c r="L8">
-        <v>0.9987363381685429</v>
+        <v>0.9996174532173266</v>
       </c>
       <c r="M8">
-        <v>1.045552407666532</v>
+        <v>1.044371497081743</v>
       </c>
       <c r="N8">
-        <v>1.004136786823337</v>
+        <v>1.007683549917847</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044624054050785</v>
+        <v>1.043689447210544</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048841611132944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046865822557377</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025294814813635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9682231734968906</v>
+        <v>0.969520708453438</v>
       </c>
       <c r="D9">
-        <v>1.037546150880053</v>
+        <v>1.03523785329354</v>
       </c>
       <c r="E9">
-        <v>0.9797576589502667</v>
+        <v>0.980855623640129</v>
       </c>
       <c r="F9">
-        <v>1.028540585993325</v>
+        <v>1.027783132013022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.056486385426862</v>
+        <v>1.055316091559977</v>
       </c>
       <c r="J9">
-        <v>0.9949502079535413</v>
+        <v>0.9961976632212234</v>
       </c>
       <c r="K9">
-        <v>1.050058084332252</v>
+        <v>1.047783968579072</v>
       </c>
       <c r="L9">
-        <v>0.9931879197936305</v>
+        <v>0.994267134274134</v>
       </c>
       <c r="M9">
-        <v>1.041186981881522</v>
+        <v>1.040440974323404</v>
       </c>
       <c r="N9">
-        <v>1.002336271182507</v>
+        <v>1.006312778833362</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041169123664016</v>
+        <v>1.040578709006149</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046485197997598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044887887148482</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024702411061249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9614123710350642</v>
+        <v>0.9629507034683564</v>
       </c>
       <c r="D10">
-        <v>1.033917874555399</v>
+        <v>1.032013732485281</v>
       </c>
       <c r="E10">
-        <v>0.9744832421670224</v>
+        <v>0.9757838084307467</v>
       </c>
       <c r="F10">
-        <v>1.024220392194786</v>
+        <v>1.023819029180687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05531219019048</v>
+        <v>1.054348179549153</v>
       </c>
       <c r="J10">
-        <v>0.9912452748847089</v>
+        <v>0.9927154932643427</v>
       </c>
       <c r="K10">
-        <v>1.047700594764574</v>
+        <v>1.045828064946722</v>
       </c>
       <c r="L10">
-        <v>0.9893290169466673</v>
+        <v>0.9906045059592792</v>
       </c>
       <c r="M10">
-        <v>1.038165689674645</v>
+        <v>1.037771141154256</v>
       </c>
       <c r="N10">
-        <v>1.001082868872049</v>
+        <v>1.005487451624548</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038829388182631</v>
+        <v>1.038517148145485</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044834945456287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043523254873964</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024254510263526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9583319551488896</v>
+        <v>0.9601600724787847</v>
       </c>
       <c r="D11">
-        <v>1.032397854073256</v>
+        <v>1.030786442545595</v>
       </c>
       <c r="E11">
-        <v>0.9721184998632196</v>
+        <v>0.9736663967688189</v>
       </c>
       <c r="F11">
-        <v>1.022664990377603</v>
+        <v>1.022637365245379</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054818650934182</v>
+        <v>1.054003330843263</v>
       </c>
       <c r="J11">
-        <v>0.9895471269989761</v>
+        <v>0.9912895789529637</v>
       </c>
       <c r="K11">
-        <v>1.046733607971582</v>
+        <v>1.045150223645822</v>
       </c>
       <c r="L11">
-        <v>0.9875860972946284</v>
+        <v>0.9891026203754245</v>
       </c>
       <c r="M11">
-        <v>1.037171772278021</v>
+        <v>1.037144638593935</v>
       </c>
       <c r="N11">
-        <v>1.000543622182431</v>
+        <v>1.00535653195612</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038479023311795</v>
+        <v>1.038457560893302</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04418369649537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.043079664920457</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023988995620147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9570929946209427</v>
+        <v>0.9591002289001477</v>
       </c>
       <c r="D12">
-        <v>1.031787932576421</v>
+        <v>1.030348342634448</v>
       </c>
       <c r="E12">
-        <v>0.9711682439699055</v>
+        <v>0.9728684605636024</v>
       </c>
       <c r="F12">
-        <v>1.022117855214153</v>
+        <v>1.022338115079049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.054610755396145</v>
+        <v>1.053882532583247</v>
       </c>
       <c r="J12">
-        <v>0.9888311966474436</v>
+        <v>0.9907423931917193</v>
       </c>
       <c r="K12">
-        <v>1.046330455170741</v>
+        <v>1.044916331938325</v>
       </c>
       <c r="L12">
-        <v>0.986869475608988</v>
+        <v>0.9885345953053163</v>
       </c>
       <c r="M12">
-        <v>1.036833235227086</v>
+        <v>1.037049510514571</v>
       </c>
       <c r="N12">
-        <v>1.00033059868651</v>
+        <v>1.005331055818336</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038537715463626</v>
+        <v>1.038708728696325</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043898660844596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04291430260538</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023832407366142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9571950591489951</v>
+        <v>0.9592906036353637</v>
       </c>
       <c r="D13">
-        <v>1.031851168376278</v>
+        <v>1.030500944084637</v>
       </c>
       <c r="E13">
-        <v>0.9712453081739538</v>
+        <v>0.9730195017868395</v>
       </c>
       <c r="F13">
-        <v>1.02232448656358</v>
+        <v>1.022708044715301</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.054621227800348</v>
+        <v>1.053938178725273</v>
       </c>
       <c r="J13">
-        <v>0.9888286444486262</v>
+        <v>0.9908243407881154</v>
       </c>
       <c r="K13">
-        <v>1.046350500391635</v>
+        <v>1.045024075889756</v>
       </c>
       <c r="L13">
-        <v>0.9868989790154938</v>
+        <v>0.9886366840996117</v>
       </c>
       <c r="M13">
-        <v>1.036993486782425</v>
+        <v>1.037370134471176</v>
       </c>
       <c r="N13">
-        <v>1.000357017180418</v>
+        <v>1.005348345143529</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03894118471916</v>
+        <v>1.039238932698252</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043910369884071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042987772291435</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02375417252249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9578706324333571</v>
+        <v>0.9599891856639712</v>
       </c>
       <c r="D14">
-        <v>1.032195696305643</v>
+        <v>1.030873159994714</v>
       </c>
       <c r="E14">
-        <v>0.9717615791219276</v>
+        <v>0.9735542760377607</v>
       </c>
       <c r="F14">
-        <v>1.02280245395949</v>
+        <v>1.023265297672543</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.054724722469415</v>
+        <v>1.054055576208453</v>
       </c>
       <c r="J14">
-        <v>0.989145830215626</v>
+        <v>0.9911648704108456</v>
       </c>
       <c r="K14">
-        <v>1.046551167640026</v>
+        <v>1.045251667387466</v>
       </c>
       <c r="L14">
-        <v>0.9872541274571116</v>
+        <v>0.9890104175432332</v>
       </c>
       <c r="M14">
-        <v>1.037323213401625</v>
+        <v>1.037777820440585</v>
       </c>
       <c r="N14">
-        <v>1.000482686760812</v>
+        <v>1.005380496872017</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039375200186939</v>
+        <v>1.039734528069598</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044053652876597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043150226853111</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023732439252618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583294381897525</v>
+        <v>0.9604336631655491</v>
       </c>
       <c r="D15">
-        <v>1.032435150997194</v>
+        <v>1.031100832529573</v>
       </c>
       <c r="E15">
-        <v>0.972113644723165</v>
+        <v>0.9738937641331321</v>
       </c>
       <c r="F15">
-        <v>1.023098542327496</v>
+        <v>1.02356181938507</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054802019965161</v>
+        <v>1.054126847283824</v>
       </c>
       <c r="J15">
-        <v>0.9893824216196676</v>
+        <v>0.9913886861214165</v>
       </c>
       <c r="K15">
-        <v>1.046701578091846</v>
+        <v>1.04539032929742</v>
       </c>
       <c r="L15">
-        <v>0.9875063649160772</v>
+        <v>0.9892506167588579</v>
       </c>
       <c r="M15">
-        <v>1.037528031961489</v>
+        <v>1.037983126998505</v>
       </c>
       <c r="N15">
-        <v>1.000566952853339</v>
+        <v>1.005401560376022</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039574634495063</v>
+        <v>1.039934338608769</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044165798297362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043254634690719</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023746900539223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9612081280079525</v>
+        <v>0.9631100046814294</v>
       </c>
       <c r="D16">
-        <v>1.033995686501393</v>
+        <v>1.032454797357967</v>
       </c>
       <c r="E16">
-        <v>0.9743350556569419</v>
+        <v>0.9759419856338535</v>
       </c>
       <c r="F16">
-        <v>1.024950889466105</v>
+        <v>1.02519614560273</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.055333034574621</v>
+        <v>1.054552891602353</v>
       </c>
       <c r="J16">
-        <v>0.990968070840384</v>
+        <v>0.9927860033268792</v>
       </c>
       <c r="K16">
-        <v>1.047742160328318</v>
+        <v>1.046226761773957</v>
       </c>
       <c r="L16">
-        <v>0.9891456004334837</v>
+        <v>0.9907216381151884</v>
       </c>
       <c r="M16">
-        <v>1.038848402609408</v>
+        <v>1.039089517858359</v>
       </c>
       <c r="N16">
-        <v>1.001098044769318</v>
+        <v>1.005566585348694</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04057952976089</v>
+        <v>1.040770111126382</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044904640306375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043849438524337</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023971146265241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9630641428137392</v>
+        <v>0.9648118197066643</v>
       </c>
       <c r="D17">
-        <v>1.035011136636638</v>
+        <v>1.033299068823802</v>
       </c>
       <c r="E17">
-        <v>0.9757723253755693</v>
+        <v>0.9772480252085879</v>
       </c>
       <c r="F17">
-        <v>1.026116245390213</v>
+        <v>1.026157200182892</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055681748276956</v>
+        <v>1.054814625129547</v>
       </c>
       <c r="J17">
-        <v>0.9920196348451925</v>
+        <v>0.9936927746556341</v>
       </c>
       <c r="K17">
-        <v>1.048431931877542</v>
+        <v>1.046747392605511</v>
       </c>
       <c r="L17">
-        <v>0.990218920941522</v>
+        <v>0.9916670964384641</v>
       </c>
       <c r="M17">
-        <v>1.039681349893864</v>
+        <v>1.039721632871279</v>
       </c>
       <c r="N17">
-        <v>1.00143995885888</v>
+        <v>1.005707375149332</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041108885687479</v>
+        <v>1.041140729178735</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045394878766313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044220339203997</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024152900782169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9642153431922061</v>
+        <v>0.9658220469536289</v>
       </c>
       <c r="D18">
-        <v>1.035629253125493</v>
+        <v>1.033759938532019</v>
       </c>
       <c r="E18">
-        <v>0.9766653730227313</v>
+        <v>0.9780214435770505</v>
       </c>
       <c r="F18">
-        <v>1.026753678133688</v>
+        <v>1.026578523081218</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055897189030112</v>
+        <v>1.054950223215649</v>
       </c>
       <c r="J18">
-        <v>0.9927019137525828</v>
+        <v>0.9942414776167322</v>
       </c>
       <c r="K18">
-        <v>1.048860069769124</v>
+        <v>1.047020310369755</v>
       </c>
       <c r="L18">
-        <v>0.9908994273286288</v>
+        <v>0.9922306556991121</v>
       </c>
       <c r="M18">
-        <v>1.040126052708384</v>
+        <v>1.039953722838662</v>
       </c>
       <c r="N18">
-        <v>1.001647604729388</v>
+        <v>1.005798854342042</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041222824725285</v>
+        <v>1.041086570405967</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045686083603597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044400663682391</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024308812424059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9646637524028939</v>
+        <v>0.9661592821535409</v>
       </c>
       <c r="D19">
-        <v>1.035819618564969</v>
+        <v>1.033835144062839</v>
       </c>
       <c r="E19">
-        <v>0.9770101910278317</v>
+        <v>0.9782721928553625</v>
       </c>
       <c r="F19">
-        <v>1.026802637861977</v>
+        <v>1.026441491351934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055960140098431</v>
+        <v>1.054954765088641</v>
       </c>
       <c r="J19">
-        <v>0.9929886686964131</v>
+        <v>0.9944221451947146</v>
       </c>
       <c r="K19">
-        <v>1.048986046225356</v>
+        <v>1.047032770650973</v>
       </c>
       <c r="L19">
-        <v>0.9911711728832167</v>
+        <v>0.9924101990041287</v>
       </c>
       <c r="M19">
-        <v>1.040112071149144</v>
+        <v>1.03975671939385</v>
       </c>
       <c r="N19">
-        <v>1.001716915153992</v>
+        <v>1.005817485839438</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040886477442624</v>
+        <v>1.040605423270669</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04578146524701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044416412677509</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024406525735846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9631681553596763</v>
+        <v>0.9646187719295292</v>
       </c>
       <c r="D20">
-        <v>1.034855596846566</v>
+        <v>1.032853610673944</v>
       </c>
       <c r="E20">
-        <v>0.9758400274285959</v>
+        <v>0.9770651668121009</v>
       </c>
       <c r="F20">
-        <v>1.025314909283139</v>
+        <v>1.024826277865626</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055620844671743</v>
+        <v>1.054606931825751</v>
       </c>
       <c r="J20">
-        <v>0.9921966224181407</v>
+        <v>0.9935851683252513</v>
       </c>
       <c r="K20">
-        <v>1.048312043589615</v>
+        <v>1.04634236288978</v>
       </c>
       <c r="L20">
-        <v>0.9903214339875265</v>
+        <v>0.9915236530428778</v>
       </c>
       <c r="M20">
-        <v>1.038926767605044</v>
+        <v>1.03844619590103</v>
       </c>
       <c r="N20">
-        <v>1.001407115936848</v>
+        <v>1.005624929562364</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039421156275145</v>
+        <v>1.039040834152453</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045308796858958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043932535884956</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024365075540778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9580490433250751</v>
+        <v>0.9598208246837013</v>
       </c>
       <c r="D21">
-        <v>1.032092850592307</v>
+        <v>1.030403205921265</v>
       </c>
       <c r="E21">
-        <v>0.9718878611447841</v>
+        <v>0.9733914152735901</v>
       </c>
       <c r="F21">
-        <v>1.021985688801651</v>
+        <v>1.021789786066204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054693588514466</v>
+        <v>1.053838746857532</v>
       </c>
       <c r="J21">
-        <v>0.989411808310886</v>
+        <v>0.991100065640697</v>
       </c>
       <c r="K21">
-        <v>1.046490696594982</v>
+        <v>1.044830599327731</v>
       </c>
       <c r="L21">
-        <v>0.9874221439316525</v>
+        <v>0.988895060641207</v>
       </c>
       <c r="M21">
-        <v>1.036562173005126</v>
+        <v>1.036369778084427</v>
       </c>
       <c r="N21">
-        <v>1.000458239883549</v>
+        <v>1.00537097912798</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037508891604381</v>
+        <v>1.037356623272762</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.044024251497211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042867199146893</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024024893242644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9547639587540839</v>
+        <v>0.9567443861871827</v>
       </c>
       <c r="D22">
-        <v>1.030330484792794</v>
+        <v>1.028844317304078</v>
       </c>
       <c r="E22">
-        <v>0.9693618567823853</v>
+        <v>0.9710462349396687</v>
       </c>
       <c r="F22">
-        <v>1.019892438402568</v>
+        <v>1.019891437718201</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054088347000972</v>
+        <v>1.053336931525227</v>
       </c>
       <c r="J22">
-        <v>0.9876265058112415</v>
+        <v>0.9895079254502319</v>
       </c>
       <c r="K22">
-        <v>1.04532411920058</v>
+        <v>1.04386523044524</v>
       </c>
       <c r="L22">
-        <v>0.9855657151837093</v>
+        <v>0.987213951661329</v>
       </c>
       <c r="M22">
-        <v>1.035079860744069</v>
+        <v>1.035078878886337</v>
       </c>
       <c r="N22">
-        <v>0.9998508510082371</v>
+        <v>1.005199618891122</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036335734974435</v>
+        <v>1.036334957895347</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043186107379621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042170008440456</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023802037422729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9565162136610871</v>
+        <v>0.9583648114309578</v>
       </c>
       <c r="D23">
-        <v>1.031271246099642</v>
+        <v>1.029669615203349</v>
       </c>
       <c r="E23">
-        <v>0.9707083064975098</v>
+        <v>0.9722778933115357</v>
       </c>
       <c r="F23">
-        <v>1.021017291592768</v>
+        <v>1.0208998865371</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054413375249777</v>
+        <v>1.05360330676741</v>
       </c>
       <c r="J23">
-        <v>0.988580336299423</v>
+        <v>0.9903393309498554</v>
       </c>
       <c r="K23">
-        <v>1.045948588733588</v>
+        <v>1.044375616237835</v>
       </c>
       <c r="L23">
-        <v>0.9865563941740549</v>
+        <v>0.9880932055757409</v>
       </c>
       <c r="M23">
-        <v>1.035880135803377</v>
+        <v>1.035764882792894</v>
       </c>
       <c r="N23">
-        <v>1.000174542360545</v>
+        <v>1.00524623883996</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036969102431763</v>
+        <v>1.036877886945891</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043618105816554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042520401502211</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023924287417446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9632580919513251</v>
+        <v>0.9646939359960852</v>
       </c>
       <c r="D24">
-        <v>1.034888011557731</v>
+        <v>1.032867355227882</v>
       </c>
       <c r="E24">
-        <v>0.9759082301419445</v>
+        <v>0.9771209553697172</v>
       </c>
       <c r="F24">
-        <v>1.025339090280152</v>
+        <v>1.024822869340736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055629188400657</v>
+        <v>1.054605802851906</v>
       </c>
       <c r="J24">
-        <v>0.9922477222734255</v>
+        <v>0.9936222299132561</v>
       </c>
       <c r="K24">
-        <v>1.048328955804291</v>
+        <v>1.046340862724541</v>
       </c>
       <c r="L24">
-        <v>0.9903720590722903</v>
+        <v>0.9915621294394591</v>
       </c>
       <c r="M24">
-        <v>1.038935370453724</v>
+        <v>1.038427653181346</v>
       </c>
       <c r="N24">
-        <v>1.00142013111589</v>
+        <v>1.005628127475851</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039387123635134</v>
+        <v>1.038985298721334</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045293691792064</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043901729385035</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024377447937691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9707937820887266</v>
+        <v>0.9720150669409885</v>
       </c>
       <c r="D25">
-        <v>1.038922669492453</v>
+        <v>1.036475554062875</v>
       </c>
       <c r="E25">
-        <v>0.9817575807206058</v>
+        <v>0.982791421910585</v>
       </c>
       <c r="F25">
-        <v>1.030182378280541</v>
+        <v>1.029311583412849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056916488073792</v>
+        <v>1.055675111928295</v>
       </c>
       <c r="J25">
-        <v>0.99634567720061</v>
+        <v>0.9975223868636003</v>
       </c>
       <c r="K25">
-        <v>1.050945380345041</v>
+        <v>1.048532843170899</v>
       </c>
       <c r="L25">
-        <v>0.9946458456343685</v>
+        <v>0.9956628852424116</v>
       </c>
       <c r="M25">
-        <v>1.042329546803962</v>
+        <v>1.041471298328425</v>
       </c>
       <c r="N25">
-        <v>1.002811078992686</v>
+        <v>1.006640361496569</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042073385789751</v>
+        <v>1.041394140825216</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047140768235129</v>
+        <v>1.045448408106941</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024860409081511</v>
       </c>
     </row>
   </sheetData>
